--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_2_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_2_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2083523.91062026</v>
+        <v>-2085556.955169977</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2297863.640167029</v>
+        <v>2297863.640167026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>216.6533621007964</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>212.5562620479444</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="F2" t="n">
         <v>263.2420339516666</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>52.64440336907769</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>27.1654272399484</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>11.21959608876245</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839145</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>69.40990664858337</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>80.17538131472436</v>
+        <v>221.2006630000037</v>
       </c>
       <c r="W5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>40.840694012368</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>82.62506902356178</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>29.71014592494668</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>72.08641524662656</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>173.8560147893772</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>67.48148437503455</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>9.22084658737597</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>378.2332066783358</v>
+        <v>378.2332066783356</v>
       </c>
       <c r="C11" t="n">
-        <v>360.7722567858627</v>
+        <v>360.7722567858626</v>
       </c>
       <c r="D11" t="n">
-        <v>350.1824066355381</v>
+        <v>350.182406635538</v>
       </c>
       <c r="E11" t="n">
-        <v>377.429735087117</v>
+        <v>377.4297350871168</v>
       </c>
       <c r="F11" t="n">
-        <v>402.3754107565666</v>
+        <v>402.3754107565665</v>
       </c>
       <c r="G11" t="n">
-        <v>407.5174598091226</v>
+        <v>407.5174598091224</v>
       </c>
       <c r="H11" t="n">
-        <v>301.3353198655366</v>
+        <v>301.3353198655363</v>
       </c>
       <c r="I11" t="n">
-        <v>79.34406608901111</v>
+        <v>79.34406608901541</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>129.670638599329</v>
+        <v>129.6706385993288</v>
       </c>
       <c r="T11" t="n">
-        <v>204.2166910683885</v>
+        <v>204.2166910683883</v>
       </c>
       <c r="U11" t="n">
-        <v>246.5822465050223</v>
+        <v>246.5822465050221</v>
       </c>
       <c r="V11" t="n">
-        <v>323.2516234849901</v>
+        <v>323.2516234849899</v>
       </c>
       <c r="W11" t="n">
-        <v>344.7403337322682</v>
+        <v>344.740333732268</v>
       </c>
       <c r="X11" t="n">
-        <v>365.2304656933242</v>
+        <v>365.230465693324</v>
       </c>
       <c r="Y11" t="n">
-        <v>381.7373036709088</v>
+        <v>381.7373036709086</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>95.26228538037898</v>
       </c>
       <c r="I12" t="n">
-        <v>28.88832357779012</v>
+        <v>28.88832357779011</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>175.3313451967925</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>162.746186113483</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>140.9204130377865</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>106.5443396587283</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>193.8390089722219</v>
+        <v>193.8390089722217</v>
       </c>
       <c r="T13" t="n">
-        <v>217.149613588982</v>
+        <v>217.1496135889818</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>237.7621941520651</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>247.637008338683</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>282.022363351446</v>
       </c>
       <c r="X13" t="n">
-        <v>221.2090204038924</v>
+        <v>221.2090204038922</v>
       </c>
       <c r="Y13" t="n">
-        <v>181.879281835402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>378.2332066783358</v>
+        <v>378.2332066783356</v>
       </c>
       <c r="C14" t="n">
-        <v>360.7722567858627</v>
+        <v>360.7722567858626</v>
       </c>
       <c r="D14" t="n">
-        <v>350.1824066355381</v>
+        <v>350.182406635538</v>
       </c>
       <c r="E14" t="n">
-        <v>377.429735087117</v>
+        <v>377.4297350871168</v>
       </c>
       <c r="F14" t="n">
-        <v>402.3754107565666</v>
+        <v>402.3754107565665</v>
       </c>
       <c r="G14" t="n">
-        <v>407.5174598091226</v>
+        <v>407.5174598091224</v>
       </c>
       <c r="H14" t="n">
-        <v>301.3353198655366</v>
+        <v>301.3353198655363</v>
       </c>
       <c r="I14" t="n">
-        <v>79.34406608901108</v>
+        <v>79.34406608901089</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>129.670638599329</v>
+        <v>129.6706385993288</v>
       </c>
       <c r="T14" t="n">
-        <v>204.2166910683884</v>
+        <v>204.216691068391</v>
       </c>
       <c r="U14" t="n">
-        <v>246.5822465050223</v>
+        <v>246.5822465050221</v>
       </c>
       <c r="V14" t="n">
-        <v>323.2516234849901</v>
+        <v>323.2516234849899</v>
       </c>
       <c r="W14" t="n">
-        <v>344.7403337322682</v>
+        <v>344.740333732268</v>
       </c>
       <c r="X14" t="n">
-        <v>365.2304656933242</v>
+        <v>365.230465693324</v>
       </c>
       <c r="Y14" t="n">
-        <v>381.7373036709088</v>
+        <v>381.7373036709086</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>95.26228538037898</v>
       </c>
       <c r="I15" t="n">
-        <v>28.88832357779012</v>
+        <v>28.88832357779011</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>175.3313451967923</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>141.9333276614244</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>140.9204130377864</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>162.0169667265969</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.6268708087558</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>78.50464998584293</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>106.5443396587283</v>
+        <v>1.90184104127664</v>
       </c>
       <c r="S16" t="n">
-        <v>193.8390089722218</v>
+        <v>193.8390089722217</v>
       </c>
       <c r="T16" t="n">
-        <v>217.1496135889819</v>
+        <v>217.1496135889818</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>281.7380283178886</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>247.637008338683</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>282.022363351446</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.08401836695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>378.2332066783357</v>
+        <v>378.2332066783356</v>
       </c>
       <c r="C17" t="n">
-        <v>360.7722567858627</v>
+        <v>360.7722567858626</v>
       </c>
       <c r="D17" t="n">
-        <v>350.1824066355381</v>
+        <v>350.182406635538</v>
       </c>
       <c r="E17" t="n">
-        <v>377.4297350871169</v>
+        <v>377.4297350871168</v>
       </c>
       <c r="F17" t="n">
-        <v>402.3754107565666</v>
+        <v>402.3754107565665</v>
       </c>
       <c r="G17" t="n">
-        <v>407.5174598091226</v>
+        <v>407.5174598091224</v>
       </c>
       <c r="H17" t="n">
-        <v>301.3353198655365</v>
+        <v>301.3353198655364</v>
       </c>
       <c r="I17" t="n">
-        <v>79.34406608901102</v>
+        <v>79.34406608901092</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>129.6706385993289</v>
+        <v>129.6706385993288</v>
       </c>
       <c r="T17" t="n">
-        <v>204.2166910683884</v>
+        <v>204.2166910683883</v>
       </c>
       <c r="U17" t="n">
-        <v>246.5822465050222</v>
+        <v>246.5822465050221</v>
       </c>
       <c r="V17" t="n">
-        <v>323.25162348499</v>
+        <v>323.2516234849899</v>
       </c>
       <c r="W17" t="n">
-        <v>344.7403337322681</v>
+        <v>344.740333732268</v>
       </c>
       <c r="X17" t="n">
-        <v>365.2304656933242</v>
+        <v>365.230465693324</v>
       </c>
       <c r="Y17" t="n">
-        <v>381.7373036709087</v>
+        <v>381.7373036709086</v>
       </c>
     </row>
     <row r="18">
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>175.3313451967924</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>144.1148380330675</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>81.11959513725154</v>
+        <v>193.8390089722217</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.1496135889818</v>
       </c>
       <c r="U19" t="n">
-        <v>281.7380283178887</v>
+        <v>237.7621941520653</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>247.637008338683</v>
       </c>
       <c r="W19" t="n">
-        <v>282.0223633514461</v>
+        <v>282.022363351446</v>
       </c>
       <c r="X19" t="n">
-        <v>221.2090204038923</v>
+        <v>221.2090204038922</v>
       </c>
       <c r="Y19" t="n">
-        <v>214.0840183669499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>378.2332066783357</v>
+        <v>378.2332066783356</v>
       </c>
       <c r="C20" t="n">
-        <v>360.7722567858627</v>
+        <v>360.7722567858626</v>
       </c>
       <c r="D20" t="n">
-        <v>350.1824066355381</v>
+        <v>350.182406635538</v>
       </c>
       <c r="E20" t="n">
-        <v>377.4297350871169</v>
+        <v>377.4297350871168</v>
       </c>
       <c r="F20" t="n">
-        <v>402.3754107565666</v>
+        <v>402.3754107565691</v>
       </c>
       <c r="G20" t="n">
-        <v>407.5174598091226</v>
+        <v>407.5174598091224</v>
       </c>
       <c r="H20" t="n">
-        <v>301.3353198655365</v>
+        <v>301.3353198655364</v>
       </c>
       <c r="I20" t="n">
-        <v>79.34406608901102</v>
+        <v>79.34406608901091</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>129.6706385993289</v>
+        <v>129.6706385993288</v>
       </c>
       <c r="T20" t="n">
-        <v>204.2166910683884</v>
+        <v>204.2166910683883</v>
       </c>
       <c r="U20" t="n">
-        <v>246.582246505024</v>
+        <v>246.5822465050221</v>
       </c>
       <c r="V20" t="n">
-        <v>323.25162348499</v>
+        <v>323.2516234849899</v>
       </c>
       <c r="W20" t="n">
-        <v>344.7403337322681</v>
+        <v>344.740333732268</v>
       </c>
       <c r="X20" t="n">
-        <v>365.2304656933242</v>
+        <v>365.230465693324</v>
       </c>
       <c r="Y20" t="n">
-        <v>381.7373036709087</v>
+        <v>381.7373036709086</v>
       </c>
     </row>
     <row r="21">
@@ -2239,22 +2239,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>80.96462270088659</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>144.1148380330675</v>
+        <v>144.1148380330674</v>
       </c>
       <c r="E22" t="n">
-        <v>141.9333276614243</v>
+        <v>141.9333276614242</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>140.9204130377863</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.6268708087556</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.1496135889818</v>
       </c>
       <c r="U22" t="n">
-        <v>281.7380283178887</v>
+        <v>175.5811069064324</v>
       </c>
       <c r="V22" t="n">
-        <v>247.6370083386831</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>282.0223633514461</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>221.2090204038923</v>
+        <v>221.2090204038922</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>214.0840183669498</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>378.2332066783357</v>
+        <v>378.2332066783356</v>
       </c>
       <c r="C23" t="n">
-        <v>360.7722567858627</v>
+        <v>360.7722567858626</v>
       </c>
       <c r="D23" t="n">
-        <v>350.1824066355381</v>
+        <v>350.182406635538</v>
       </c>
       <c r="E23" t="n">
-        <v>377.4297350871169</v>
+        <v>377.4297350871168</v>
       </c>
       <c r="F23" t="n">
-        <v>402.3754107565666</v>
+        <v>402.3754107565691</v>
       </c>
       <c r="G23" t="n">
-        <v>407.5174598091226</v>
+        <v>407.5174598091224</v>
       </c>
       <c r="H23" t="n">
-        <v>301.3353198655365</v>
+        <v>301.3353198655364</v>
       </c>
       <c r="I23" t="n">
-        <v>79.34406608901102</v>
+        <v>79.34406608901091</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>129.6706385993289</v>
+        <v>129.6706385993288</v>
       </c>
       <c r="T23" t="n">
-        <v>204.2166910683884</v>
+        <v>204.2166910683883</v>
       </c>
       <c r="U23" t="n">
-        <v>246.5822465050222</v>
+        <v>246.5822465050221</v>
       </c>
       <c r="V23" t="n">
-        <v>323.25162348499</v>
+        <v>323.2516234849899</v>
       </c>
       <c r="W23" t="n">
-        <v>344.7403337322681</v>
+        <v>344.740333732268</v>
       </c>
       <c r="X23" t="n">
-        <v>365.2304656933242</v>
+        <v>365.230465693324</v>
       </c>
       <c r="Y23" t="n">
-        <v>381.7373036709095</v>
+        <v>381.7373036709086</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>175.3313451967924</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>162.7461861134828</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>162.0169667265968</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>106.5443396587282</v>
+        <v>106.5443396587281</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.1496135889819</v>
+        <v>217.1496135889818</v>
       </c>
       <c r="U25" t="n">
-        <v>281.7380283178887</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>247.637008338683</v>
       </c>
       <c r="W25" t="n">
-        <v>242.7548969513505</v>
+        <v>282.022363351446</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>221.2090204038922</v>
       </c>
       <c r="Y25" t="n">
-        <v>214.0840183669499</v>
+        <v>162.3106773520758</v>
       </c>
     </row>
     <row r="26">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>375.6881677212086</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>334.5284246757166</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>361.7757531272962</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>412.0180947942674</v>
+        <v>391.8634778493019</v>
       </c>
       <c r="H26" t="n">
         <v>305.8359548506814</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>114.0166566395074</v>
+        <v>134.1712735844738</v>
       </c>
       <c r="T26" t="n">
         <v>208.7173260535332</v>
@@ -2612,13 +2612,13 @@
         <v>251.0828814901671</v>
       </c>
       <c r="V26" t="n">
-        <v>307.5976415251685</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>342.195294775137</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>349.5764837335035</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>159.6773632369718</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>147.0922041536623</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4608560732459</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>126.2793457016028</v>
+        <v>126.2793457016036</v>
       </c>
       <c r="F28" t="n">
-        <v>125.2664310779648</v>
+        <v>125.2664310779657</v>
       </c>
       <c r="G28" t="n">
-        <v>146.3629847667753</v>
+        <v>146.3629847667762</v>
       </c>
       <c r="H28" t="n">
-        <v>128.9728888489341</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.89035769890754</v>
       </c>
       <c r="S28" t="n">
-        <v>178.1850270124002</v>
+        <v>56.43680767913703</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>266.0840463580672</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>217.1923322747968</v>
+        <v>266.3683813916255</v>
       </c>
       <c r="X28" t="n">
-        <v>205.5550384440707</v>
+        <v>205.5550384440716</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>198.4300364071293</v>
       </c>
     </row>
     <row r="29">
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>362.5792247185142</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>345.1182748260412</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>347.6373676784103</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,7 +2807,7 @@
         <v>412.0180947942674</v>
       </c>
       <c r="H29" t="n">
-        <v>285.681337905715</v>
+        <v>285.6813379057158</v>
       </c>
       <c r="I29" t="n">
         <v>83.84470107415589</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>134.1712735844738</v>
+        <v>114.0166566395083</v>
       </c>
       <c r="T29" t="n">
-        <v>208.7173260535332</v>
+        <v>188.5627091085677</v>
       </c>
       <c r="U29" t="n">
         <v>251.0828814901671</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>342.1952947751387</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>159.6773632369718</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>126.2793457016028</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>125.2664310779648</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>127.1695809014109</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>128.972888848935</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.89035769890666</v>
+        <v>90.89035769890754</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>178.1850270124011</v>
       </c>
       <c r="T31" t="n">
-        <v>201.4956316291603</v>
+        <v>201.4956316291612</v>
       </c>
       <c r="U31" t="n">
-        <v>266.0840463580672</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>231.9830263788616</v>
+        <v>231.9830263788625</v>
       </c>
       <c r="W31" t="n">
-        <v>266.3683813916246</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>205.5550384440707</v>
+        <v>205.5550384440716</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.43669187759884</v>
+        <v>198.4300364071293</v>
       </c>
     </row>
     <row r="32">
@@ -3032,10 +3032,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>287.1735168435109</v>
       </c>
       <c r="E32" t="n">
-        <v>314.4208452950899</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.6130683112824</v>
+        <v>110.6130683112823</v>
       </c>
       <c r="C34" t="n">
-        <v>98.0279092279729</v>
+        <v>98.02790922797288</v>
       </c>
       <c r="D34" t="n">
-        <v>79.39656114755742</v>
+        <v>79.39656114755741</v>
       </c>
       <c r="E34" t="n">
-        <v>77.21505077591424</v>
+        <v>77.21505077591422</v>
       </c>
       <c r="F34" t="n">
-        <v>76.20213615227631</v>
+        <v>76.2021361522763</v>
       </c>
       <c r="G34" t="n">
-        <v>97.29868984108676</v>
+        <v>97.29868984108674</v>
       </c>
       <c r="H34" t="n">
-        <v>79.90859392324562</v>
+        <v>79.9085939232456</v>
       </c>
       <c r="I34" t="n">
-        <v>41.92307891714832</v>
+        <v>41.9230789171483</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.82606277321814</v>
+        <v>41.82606277321813</v>
       </c>
       <c r="S34" t="n">
         <v>129.1207320867117</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>344.5085700170963</v>
+        <v>344.5085700170954</v>
       </c>
       <c r="H35" t="n">
         <v>305.8359548506814</v>
@@ -3424,25 +3424,25 @@
         <v>110.6130683112824</v>
       </c>
       <c r="C37" t="n">
-        <v>98.02790922797291</v>
+        <v>98.02790922797294</v>
       </c>
       <c r="D37" t="n">
-        <v>79.39656114755743</v>
+        <v>79.39656114755746</v>
       </c>
       <c r="E37" t="n">
-        <v>77.21505077591425</v>
+        <v>77.21505077591428</v>
       </c>
       <c r="F37" t="n">
-        <v>76.20213615227632</v>
+        <v>76.20213615227635</v>
       </c>
       <c r="G37" t="n">
-        <v>97.29868984108677</v>
+        <v>97.2986898410868</v>
       </c>
       <c r="H37" t="n">
-        <v>79.90859392324563</v>
+        <v>79.90859392324566</v>
       </c>
       <c r="I37" t="n">
-        <v>41.92307891714833</v>
+        <v>41.92307891714836</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.82606277321815</v>
+        <v>41.82606277321818</v>
       </c>
       <c r="S37" t="n">
-        <v>129.1207320867117</v>
+        <v>129.1207320867118</v>
       </c>
       <c r="T37" t="n">
-        <v>152.4313367034718</v>
+        <v>152.4313367034719</v>
       </c>
       <c r="U37" t="n">
         <v>217.0197514323787</v>
@@ -3487,7 +3487,7 @@
         <v>217.3040864659361</v>
       </c>
       <c r="X37" t="n">
-        <v>156.4907435183822</v>
+        <v>156.4907435183823</v>
       </c>
       <c r="Y37" t="n">
         <v>149.3657414814399</v>
@@ -3518,10 +3518,10 @@
         <v>412.0180947942674</v>
       </c>
       <c r="H38" t="n">
-        <v>238.3264300735094</v>
+        <v>305.8359548506814</v>
       </c>
       <c r="I38" t="n">
-        <v>83.84470107415589</v>
+        <v>16.33517629698392</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>110.6130683112824</v>
       </c>
       <c r="C40" t="n">
-        <v>98.02790922797296</v>
+        <v>98.02790922797293</v>
       </c>
       <c r="D40" t="n">
-        <v>79.39656114755748</v>
+        <v>79.39656114755745</v>
       </c>
       <c r="E40" t="n">
-        <v>77.21505077591429</v>
+        <v>77.21505077591426</v>
       </c>
       <c r="F40" t="n">
-        <v>76.20213615227637</v>
+        <v>76.20213615227634</v>
       </c>
       <c r="G40" t="n">
-        <v>97.29868984108681</v>
+        <v>97.29868984108678</v>
       </c>
       <c r="H40" t="n">
-        <v>79.90859392324568</v>
+        <v>79.90859392324565</v>
       </c>
       <c r="I40" t="n">
-        <v>41.92307891714837</v>
+        <v>41.92307891714835</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.8260627732182</v>
+        <v>41.82606277321817</v>
       </c>
       <c r="S40" t="n">
         <v>129.1207320867118</v>
@@ -3755,10 +3755,10 @@
         <v>412.0180947942674</v>
       </c>
       <c r="H41" t="n">
-        <v>305.8359548506813</v>
+        <v>305.8359548506814</v>
       </c>
       <c r="I41" t="n">
-        <v>83.84470107415588</v>
+        <v>83.84470107415589</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.66174880730208</v>
+        <v>134.1712735844738</v>
       </c>
       <c r="T41" t="n">
-        <v>208.7173260535332</v>
+        <v>141.207801276361</v>
       </c>
       <c r="U41" t="n">
         <v>251.0828814901671</v>
@@ -3837,7 +3837,7 @@
         <v>95.26228538037898</v>
       </c>
       <c r="I42" t="n">
-        <v>28.88832357779011</v>
+        <v>28.88832357779012</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>97.2986898410868</v>
       </c>
       <c r="H43" t="n">
-        <v>79.90859392324568</v>
+        <v>79.90859392324566</v>
       </c>
       <c r="I43" t="n">
-        <v>41.92307891714835</v>
+        <v>41.92307891714836</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>339.3665209645403</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>412.0180947942674</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>134.1712735844738</v>
+        <v>66.66174880730208</v>
       </c>
       <c r="T44" t="n">
         <v>208.7173260535332</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>521.1660470154206</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="C2" t="n">
-        <v>302.3242671156262</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="D2" t="n">
-        <v>302.3242671156262</v>
+        <v>572.3637964131199</v>
       </c>
       <c r="E2" t="n">
-        <v>302.3242671156262</v>
+        <v>306.4627520174971</v>
       </c>
       <c r="F2" t="n">
-        <v>36.42322272000341</v>
+        <v>40.56170762187429</v>
       </c>
       <c r="G2" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="H2" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="I2" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J2" t="n">
         <v>21.05936271613333</v>
@@ -4340,7 +4340,7 @@
         <v>563.3128681098021</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O2" t="n">
         <v>950.1371873885138</v>
@@ -4367,13 +4367,13 @@
         <v>1052.968135806666</v>
       </c>
       <c r="W2" t="n">
-        <v>787.0670914110435</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X2" t="n">
-        <v>787.0670914110435</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Y2" t="n">
-        <v>521.1660470154206</v>
+        <v>1052.968135806666</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>220.7700857085188</v>
+        <v>569.3058959986433</v>
       </c>
       <c r="C3" t="n">
-        <v>220.7700857085188</v>
+        <v>394.8528667175163</v>
       </c>
       <c r="D3" t="n">
-        <v>220.7700857085188</v>
+        <v>394.8528667175163</v>
       </c>
       <c r="E3" t="n">
-        <v>167.5939206892484</v>
+        <v>394.8528667175163</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613333</v>
+        <v>248.3183087444013</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I3" t="n">
         <v>21.05936271613333</v>
@@ -4413,16 +4413,16 @@
         <v>158.2210505399122</v>
       </c>
       <c r="L3" t="n">
-        <v>158.2210505399122</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="M3" t="n">
-        <v>418.8306641520621</v>
+        <v>531.9454581020244</v>
       </c>
       <c r="N3" t="n">
-        <v>600.5536970360758</v>
+        <v>792.5550717141743</v>
       </c>
       <c r="O3" t="n">
-        <v>860.9667611285679</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="P3" t="n">
         <v>1052.968135806666</v>
@@ -4440,19 +4440,19 @@
         <v>850.9830782217423</v>
       </c>
       <c r="U3" t="n">
-        <v>850.9830782217423</v>
+        <v>823.5432527268449</v>
       </c>
       <c r="V3" t="n">
-        <v>850.9830782217423</v>
+        <v>823.5432527268449</v>
       </c>
       <c r="W3" t="n">
-        <v>596.7457214935407</v>
+        <v>569.3058959986433</v>
       </c>
       <c r="X3" t="n">
-        <v>596.7457214935407</v>
+        <v>569.3058959986433</v>
       </c>
       <c r="Y3" t="n">
-        <v>388.9854227285868</v>
+        <v>569.3058959986433</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.3979106539025</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="C4" t="n">
-        <v>112.3979106539025</v>
+        <v>171.1760021284691</v>
       </c>
       <c r="D4" t="n">
-        <v>112.3979106539025</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E4" t="n">
-        <v>112.3979106539025</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F4" t="n">
-        <v>112.3979106539025</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G4" t="n">
-        <v>112.3979106539025</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H4" t="n">
-        <v>112.3979106539025</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I4" t="n">
-        <v>112.3979106539025</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J4" t="n">
         <v>21.05936271613333</v>
@@ -4510,28 +4510,28 @@
         <v>182.5089274706534</v>
       </c>
       <c r="R4" t="n">
-        <v>112.3979106539025</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S4" t="n">
-        <v>112.3979106539025</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T4" t="n">
-        <v>112.3979106539025</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U4" t="n">
-        <v>112.3979106539025</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V4" t="n">
-        <v>112.3979106539025</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W4" t="n">
-        <v>112.3979106539025</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X4" t="n">
-        <v>112.3979106539025</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.3979106539025</v>
+        <v>182.5089274706534</v>
       </c>
     </row>
     <row r="5">
@@ -4544,10 +4544,10 @@
         <v>323.2990948046596</v>
       </c>
       <c r="C5" t="n">
-        <v>44.35312136793684</v>
+        <v>323.2990948046596</v>
       </c>
       <c r="D5" t="n">
-        <v>44.35312136793684</v>
+        <v>323.2990948046596</v>
       </c>
       <c r="E5" t="n">
         <v>44.35312136793684</v>
@@ -4568,19 +4568,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K5" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L5" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M5" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N5" t="n">
         <v>817.0829279823542</v>
       </c>
       <c r="O5" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P5" t="n">
         <v>1099.465256491931</v>
@@ -4589,28 +4589,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R5" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S5" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T5" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U5" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V5" t="n">
         <v>881.1910416781051</v>
       </c>
       <c r="W5" t="n">
+        <v>881.1910416781051</v>
+      </c>
+      <c r="X5" t="n">
+        <v>881.1910416781051</v>
+      </c>
+      <c r="Y5" t="n">
         <v>602.2450682413823</v>
-      </c>
-      <c r="X5" t="n">
-        <v>602.2450682413823</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>323.2990948046596</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>413.7240514432606</v>
+        <v>474.4130622961985</v>
       </c>
       <c r="C6" t="n">
-        <v>413.7240514432606</v>
+        <v>299.9600330150714</v>
       </c>
       <c r="D6" t="n">
-        <v>264.7896417820094</v>
+        <v>151.0256233538202</v>
       </c>
       <c r="E6" t="n">
-        <v>105.5521867765539</v>
+        <v>109.772397078701</v>
       </c>
       <c r="F6" t="n">
-        <v>105.5521867765539</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G6" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H6" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I6" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J6" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K6" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L6" t="n">
-        <v>411.954469746149</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M6" t="n">
-        <v>685.3494183114809</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N6" t="n">
-        <v>958.7443668768128</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O6" t="n">
-        <v>1104.626054809422</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P6" t="n">
         <v>1104.626054809422</v>
@@ -4668,28 +4668,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R6" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S6" t="n">
-        <v>836.1767451915302</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T6" t="n">
-        <v>836.1767451915302</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U6" t="n">
-        <v>836.1767451915302</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V6" t="n">
-        <v>836.1767451915302</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W6" t="n">
-        <v>581.9393884633287</v>
+        <v>850.3886980812204</v>
       </c>
       <c r="X6" t="n">
-        <v>581.9393884633287</v>
+        <v>850.3886980812204</v>
       </c>
       <c r="Y6" t="n">
-        <v>581.9393884633287</v>
+        <v>642.6283993162665</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F7" t="n">
-        <v>52.1027695052255</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G7" t="n">
         <v>22.09252109618844</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1759.555763042629</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="C8" t="n">
-        <v>1390.593246102217</v>
+        <v>1193.718655425422</v>
       </c>
       <c r="D8" t="n">
-        <v>1032.327547495467</v>
+        <v>1193.718655425422</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>807.9304028271774</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>800.984902077974</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>383.0210939761608</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4814,7 +4814,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.555763042629</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="Y8" t="n">
-        <v>1759.555763042629</v>
+        <v>1562.681172365833</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.25696827225937</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C10" t="n">
-        <v>63.25696827225937</v>
+        <v>270.0191909330955</v>
       </c>
       <c r="D10" t="n">
-        <v>63.25696827225937</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>63.25696827225937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>352.67413830922</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>352.67413830922</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W10" t="n">
-        <v>63.25696827225937</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X10" t="n">
-        <v>63.25696827225937</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.25696827225937</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.886935907449</v>
+        <v>2397.886935907452</v>
       </c>
       <c r="C11" t="n">
-        <v>2033.470514911628</v>
+        <v>2033.470514911631</v>
       </c>
       <c r="D11" t="n">
-        <v>1679.750912249468</v>
+        <v>1679.750912249471</v>
       </c>
       <c r="E11" t="n">
-        <v>1298.508755595815</v>
+        <v>1298.508755595818</v>
       </c>
       <c r="F11" t="n">
-        <v>892.0689467507982</v>
+        <v>892.0689467508016</v>
       </c>
       <c r="G11" t="n">
-        <v>480.4351489638057</v>
+        <v>480.4351489638092</v>
       </c>
       <c r="H11" t="n">
-        <v>176.0560379885151</v>
+        <v>176.0560379885194</v>
       </c>
       <c r="I11" t="n">
         <v>95.91051668648367</v>
@@ -5042,7 +5042,7 @@
         <v>360.0728659043561</v>
       </c>
       <c r="K11" t="n">
-        <v>876.7285546048006</v>
+        <v>876.728554604801</v>
       </c>
       <c r="L11" t="n">
         <v>1569.962249801048</v>
@@ -5051,13 +5051,13 @@
         <v>2357.924853012898</v>
       </c>
       <c r="N11" t="n">
-        <v>3144.005517388441</v>
+        <v>3144.005517388442</v>
       </c>
       <c r="O11" t="n">
-        <v>3841.091560304322</v>
+        <v>3841.091560304323</v>
       </c>
       <c r="P11" t="n">
-        <v>4398.3639873699</v>
+        <v>4398.363987369901</v>
       </c>
       <c r="Q11" t="n">
         <v>4739.630612154367</v>
@@ -5066,25 +5066,25 @@
         <v>4795.525834324184</v>
       </c>
       <c r="S11" t="n">
-        <v>4664.545391294558</v>
+        <v>4664.545391294559</v>
       </c>
       <c r="T11" t="n">
-        <v>4458.265905366892</v>
+        <v>4458.265905366894</v>
       </c>
       <c r="U11" t="n">
-        <v>4209.192929099194</v>
+        <v>4209.192929099196</v>
       </c>
       <c r="V11" t="n">
-        <v>3882.676137700214</v>
+        <v>3882.676137700216</v>
       </c>
       <c r="W11" t="n">
-        <v>3534.45357837469</v>
+        <v>3534.453578374692</v>
       </c>
       <c r="X11" t="n">
-        <v>3165.533916058201</v>
+        <v>3165.533916058203</v>
       </c>
       <c r="Y11" t="n">
-        <v>2779.94068002698</v>
+        <v>2779.940680026983</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4302588394913</v>
+        <v>987.4302588394911</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9772295583643</v>
+        <v>812.9772295583641</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0428198971131</v>
+        <v>664.0428198971128</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8053648916575</v>
+        <v>504.8053648916574</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2708069185425</v>
+        <v>358.2708069185424</v>
       </c>
       <c r="G12" t="n">
         <v>221.3151721997858</v>
@@ -5121,19 +5121,19 @@
         <v>134.7202975173784</v>
       </c>
       <c r="K12" t="n">
-        <v>499.9123404912806</v>
+        <v>279.2072192132445</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5153786601472</v>
+        <v>519.8102573821112</v>
       </c>
       <c r="M12" t="n">
-        <v>1040.644643863329</v>
+        <v>1271.29753030071</v>
       </c>
       <c r="N12" t="n">
-        <v>1363.126082569685</v>
+        <v>2068.327919607184</v>
       </c>
       <c r="O12" t="n">
-        <v>2025.837498008382</v>
+        <v>2341.11563896192</v>
       </c>
       <c r="P12" t="n">
         <v>2540.718766890972</v>
@@ -5154,7 +5154,7 @@
         <v>2060.64685978999</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.494751558248</v>
+        <v>1825.494751558247</v>
       </c>
       <c r="W12" t="n">
         <v>1571.257394830046</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>402.6444552231196</v>
+        <v>95.91051668648367</v>
       </c>
       <c r="C13" t="n">
-        <v>238.2543682398033</v>
+        <v>95.91051668648367</v>
       </c>
       <c r="D13" t="n">
-        <v>238.2543682398033</v>
+        <v>95.91051668648367</v>
       </c>
       <c r="E13" t="n">
-        <v>238.2543682398033</v>
+        <v>95.91051668648367</v>
       </c>
       <c r="F13" t="n">
         <v>95.91051668648367</v>
@@ -5197,52 +5197,52 @@
         <v>95.91051668648367</v>
       </c>
       <c r="J13" t="n">
-        <v>111.0666786329385</v>
+        <v>111.0666786329387</v>
       </c>
       <c r="K13" t="n">
-        <v>262.9434072860047</v>
+        <v>262.943407286005</v>
       </c>
       <c r="L13" t="n">
-        <v>511.573723238709</v>
+        <v>511.5737232387096</v>
       </c>
       <c r="M13" t="n">
-        <v>783.8664469273058</v>
+        <v>783.8664469273066</v>
       </c>
       <c r="N13" t="n">
-        <v>1055.225219562731</v>
+        <v>1055.225219562732</v>
       </c>
       <c r="O13" t="n">
-        <v>1290.192805693336</v>
+        <v>1290.192805693337</v>
       </c>
       <c r="P13" t="n">
-        <v>1468.370553908188</v>
+        <v>1468.37055390819</v>
       </c>
       <c r="Q13" t="n">
-        <v>1509.667293259502</v>
+        <v>1509.667293259504</v>
       </c>
       <c r="R13" t="n">
-        <v>1402.046748149676</v>
+        <v>1509.667293259504</v>
       </c>
       <c r="S13" t="n">
-        <v>1206.249769389856</v>
+        <v>1313.870314499684</v>
       </c>
       <c r="T13" t="n">
-        <v>986.906725360581</v>
+        <v>1094.527270470409</v>
       </c>
       <c r="U13" t="n">
-        <v>986.906725360581</v>
+        <v>854.3634379935759</v>
       </c>
       <c r="V13" t="n">
-        <v>986.906725360581</v>
+        <v>604.2250457322799</v>
       </c>
       <c r="W13" t="n">
-        <v>986.906725360581</v>
+        <v>319.3539716399101</v>
       </c>
       <c r="X13" t="n">
-        <v>763.4632704071544</v>
+        <v>95.91051668648367</v>
       </c>
       <c r="Y13" t="n">
-        <v>579.7468241087686</v>
+        <v>95.91051668648367</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2397.886935907449</v>
+        <v>2397.886935907447</v>
       </c>
       <c r="C14" t="n">
-        <v>2033.470514911628</v>
+        <v>2033.470514911626</v>
       </c>
       <c r="D14" t="n">
-        <v>1679.750912249468</v>
+        <v>1679.750912249466</v>
       </c>
       <c r="E14" t="n">
-        <v>1298.508755595814</v>
+        <v>1298.508755595813</v>
       </c>
       <c r="F14" t="n">
-        <v>892.0689467507977</v>
+        <v>892.0689467507965</v>
       </c>
       <c r="G14" t="n">
-        <v>480.4351489638045</v>
+        <v>480.4351489638042</v>
       </c>
       <c r="H14" t="n">
-        <v>176.0560379885151</v>
+        <v>176.0560379885149</v>
       </c>
       <c r="I14" t="n">
-        <v>95.91051668648367</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="J14" t="n">
-        <v>360.0728659043561</v>
+        <v>360.0728659043555</v>
       </c>
       <c r="K14" t="n">
-        <v>876.7285546048015</v>
+        <v>876.7285546048003</v>
       </c>
       <c r="L14" t="n">
-        <v>1569.962249801049</v>
+        <v>1569.962249801047</v>
       </c>
       <c r="M14" t="n">
-        <v>2357.924853012898</v>
+        <v>2357.924853012897</v>
       </c>
       <c r="N14" t="n">
-        <v>3144.005517388442</v>
+        <v>3144.005517388441</v>
       </c>
       <c r="O14" t="n">
-        <v>3841.091560304323</v>
+        <v>3841.091560304322</v>
       </c>
       <c r="P14" t="n">
-        <v>4398.363987369901</v>
+        <v>4398.363987369899</v>
       </c>
       <c r="Q14" t="n">
-        <v>4739.630612154368</v>
+        <v>4739.630612154366</v>
       </c>
       <c r="R14" t="n">
-        <v>4795.525834324184</v>
+        <v>4795.525834324183</v>
       </c>
       <c r="S14" t="n">
-        <v>4664.545391294559</v>
+        <v>4664.545391294558</v>
       </c>
       <c r="T14" t="n">
-        <v>4458.265905366893</v>
+        <v>4458.26590536689</v>
       </c>
       <c r="U14" t="n">
-        <v>4209.192929099194</v>
+        <v>4209.19292909919</v>
       </c>
       <c r="V14" t="n">
-        <v>3882.676137700214</v>
+        <v>3882.67613770021</v>
       </c>
       <c r="W14" t="n">
-        <v>3534.45357837469</v>
+        <v>3534.453578374687</v>
       </c>
       <c r="X14" t="n">
-        <v>3165.533916058201</v>
+        <v>3165.533916058198</v>
       </c>
       <c r="Y14" t="n">
-        <v>2779.94068002698</v>
+        <v>2779.940680026978</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4302588394913</v>
+        <v>987.4302588394911</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9772295583643</v>
+        <v>812.9772295583641</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0428198971131</v>
+        <v>664.0428198971128</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8053648916575</v>
+        <v>504.8053648916574</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2708069185425</v>
+        <v>358.2708069185423</v>
       </c>
       <c r="G15" t="n">
         <v>221.3151721997858</v>
@@ -5352,28 +5352,28 @@
         <v>125.0906415125343</v>
       </c>
       <c r="I15" t="n">
-        <v>95.91051668648367</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="J15" t="n">
-        <v>259.5504225043832</v>
+        <v>134.7202975173784</v>
       </c>
       <c r="K15" t="n">
-        <v>665.857928842702</v>
+        <v>279.2072192132445</v>
       </c>
       <c r="L15" t="n">
-        <v>922.4625598856189</v>
+        <v>519.8102573821112</v>
       </c>
       <c r="M15" t="n">
-        <v>1222.5918250888</v>
+        <v>1271.29753030071</v>
       </c>
       <c r="N15" t="n">
-        <v>1545.073263795156</v>
+        <v>2068.327919607184</v>
       </c>
       <c r="O15" t="n">
-        <v>1817.860983149891</v>
+        <v>2341.11563896192</v>
       </c>
       <c r="P15" t="n">
-        <v>2332.742252032482</v>
+        <v>2540.718766890972</v>
       </c>
       <c r="Q15" t="n">
         <v>2624.228975484484</v>
@@ -5391,7 +5391,7 @@
         <v>2060.64685978999</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.494751558248</v>
+        <v>1825.494751558247</v>
       </c>
       <c r="W15" t="n">
         <v>1571.257394830046</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>770.6602421616415</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="C16" t="n">
-        <v>770.6602421616415</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="D16" t="n">
-        <v>770.6602421616415</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="E16" t="n">
-        <v>627.293244523839</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="F16" t="n">
-        <v>484.9493929705194</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="G16" t="n">
-        <v>321.2958912264821</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="H16" t="n">
-        <v>175.2081429348099</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="I16" t="n">
-        <v>95.91051668648367</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="J16" t="n">
-        <v>111.0666786329385</v>
+        <v>111.0666786329387</v>
       </c>
       <c r="K16" t="n">
-        <v>262.9434072860047</v>
+        <v>262.9434072860051</v>
       </c>
       <c r="L16" t="n">
-        <v>511.573723238709</v>
+        <v>511.5737232387096</v>
       </c>
       <c r="M16" t="n">
-        <v>783.8664469273058</v>
+        <v>783.8664469273067</v>
       </c>
       <c r="N16" t="n">
-        <v>1055.225219562731</v>
+        <v>1055.225219562732</v>
       </c>
       <c r="O16" t="n">
-        <v>1290.192805693336</v>
+        <v>1290.192805693337</v>
       </c>
       <c r="P16" t="n">
-        <v>1468.370553908188</v>
+        <v>1468.37055390819</v>
       </c>
       <c r="Q16" t="n">
-        <v>1509.667293259502</v>
+        <v>1509.667293259504</v>
       </c>
       <c r="R16" t="n">
-        <v>1402.046748149676</v>
+        <v>1507.746241702659</v>
       </c>
       <c r="S16" t="n">
-        <v>1206.249769389856</v>
+        <v>1311.949262942839</v>
       </c>
       <c r="T16" t="n">
-        <v>986.9067253605808</v>
+        <v>1092.606218913564</v>
       </c>
       <c r="U16" t="n">
-        <v>986.9067253605808</v>
+        <v>808.0223519257981</v>
       </c>
       <c r="V16" t="n">
-        <v>986.9067253605808</v>
+        <v>557.8839596645022</v>
       </c>
       <c r="W16" t="n">
-        <v>986.9067253605808</v>
+        <v>273.0128855721325</v>
       </c>
       <c r="X16" t="n">
-        <v>986.9067253605808</v>
+        <v>273.0128855721325</v>
       </c>
       <c r="Y16" t="n">
-        <v>770.6602421616415</v>
+        <v>273.0128855721325</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2397.886935907448</v>
+        <v>2397.886935907447</v>
       </c>
       <c r="C17" t="n">
-        <v>2033.470514911628</v>
+        <v>2033.470514911626</v>
       </c>
       <c r="D17" t="n">
-        <v>1679.750912249468</v>
+        <v>1679.750912249466</v>
       </c>
       <c r="E17" t="n">
-        <v>1298.508755595814</v>
+        <v>1298.508755595813</v>
       </c>
       <c r="F17" t="n">
-        <v>892.0689467507977</v>
+        <v>892.0689467507964</v>
       </c>
       <c r="G17" t="n">
-        <v>480.4351489638053</v>
+        <v>480.4351489638042</v>
       </c>
       <c r="H17" t="n">
-        <v>176.056037988515</v>
+        <v>176.0560379885149</v>
       </c>
       <c r="I17" t="n">
         <v>95.91051668648366</v>
       </c>
       <c r="J17" t="n">
-        <v>360.0728659043555</v>
+        <v>360.0728659043552</v>
       </c>
       <c r="K17" t="n">
-        <v>876.7285546048001</v>
+        <v>876.7285546047997</v>
       </c>
       <c r="L17" t="n">
-        <v>1569.962249801048</v>
+        <v>1569.962249801046</v>
       </c>
       <c r="M17" t="n">
-        <v>2357.924853012897</v>
+        <v>2357.924853012896</v>
       </c>
       <c r="N17" t="n">
-        <v>3144.005517388441</v>
+        <v>3144.00551738844</v>
       </c>
       <c r="O17" t="n">
-        <v>3841.091560304321</v>
+        <v>3841.091560304322</v>
       </c>
       <c r="P17" t="n">
-        <v>4398.363987369899</v>
+        <v>4398.3639873699</v>
       </c>
       <c r="Q17" t="n">
         <v>4739.630612154366</v>
@@ -5546,19 +5546,19 @@
         <v>4458.265905366893</v>
       </c>
       <c r="U17" t="n">
-        <v>4209.192929099193</v>
+        <v>4209.192929099191</v>
       </c>
       <c r="V17" t="n">
-        <v>3882.676137700213</v>
+        <v>3882.676137700211</v>
       </c>
       <c r="W17" t="n">
-        <v>3534.453578374689</v>
+        <v>3534.453578374688</v>
       </c>
       <c r="X17" t="n">
-        <v>3165.5339160582</v>
+        <v>3165.533916058199</v>
       </c>
       <c r="Y17" t="n">
-        <v>2779.940680026979</v>
+        <v>2779.940680026978</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>95.91051668648366</v>
       </c>
       <c r="J18" t="n">
-        <v>259.5504225043831</v>
+        <v>134.7202975173784</v>
       </c>
       <c r="K18" t="n">
-        <v>665.857928842702</v>
+        <v>499.9123404912806</v>
       </c>
       <c r="L18" t="n">
-        <v>913.5946029812374</v>
+        <v>740.5153786601472</v>
       </c>
       <c r="M18" t="n">
-        <v>1213.723868184419</v>
+        <v>1040.644643863329</v>
       </c>
       <c r="N18" t="n">
-        <v>1536.205306890775</v>
+        <v>1363.126082569685</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.99302624551</v>
+        <v>2025.837498008382</v>
       </c>
       <c r="P18" t="n">
-        <v>2323.8742951281</v>
+        <v>2540.718766890972</v>
       </c>
       <c r="Q18" t="n">
-        <v>2615.361018580103</v>
+        <v>2624.228975484484</v>
       </c>
       <c r="R18" t="n">
         <v>2624.228975484484</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>241.4810601542286</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="C19" t="n">
-        <v>241.4810601542286</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="D19" t="n">
         <v>95.91051668648366</v>
@@ -5671,52 +5671,52 @@
         <v>95.91051668648366</v>
       </c>
       <c r="J19" t="n">
-        <v>111.0666786329386</v>
+        <v>111.0666786329387</v>
       </c>
       <c r="K19" t="n">
-        <v>262.9434072860048</v>
+        <v>262.943407286005</v>
       </c>
       <c r="L19" t="n">
-        <v>511.5737232387092</v>
+        <v>511.5737232387096</v>
       </c>
       <c r="M19" t="n">
-        <v>783.866446927306</v>
+        <v>783.8664469273067</v>
       </c>
       <c r="N19" t="n">
-        <v>1055.225219562731</v>
+        <v>1055.225219562732</v>
       </c>
       <c r="O19" t="n">
-        <v>1290.192805693336</v>
+        <v>1290.192805693337</v>
       </c>
       <c r="P19" t="n">
-        <v>1468.370553908189</v>
+        <v>1468.37055390819</v>
       </c>
       <c r="Q19" t="n">
-        <v>1509.667293259502</v>
+        <v>1509.667293259504</v>
       </c>
       <c r="R19" t="n">
-        <v>1509.667293259502</v>
+        <v>1509.667293259504</v>
       </c>
       <c r="S19" t="n">
-        <v>1427.72830827238</v>
+        <v>1313.870314499684</v>
       </c>
       <c r="T19" t="n">
-        <v>1427.72830827238</v>
+        <v>1094.52727047041</v>
       </c>
       <c r="U19" t="n">
-        <v>1143.144441284613</v>
+        <v>854.3634379935759</v>
       </c>
       <c r="V19" t="n">
-        <v>1143.144441284613</v>
+        <v>604.2250457322799</v>
       </c>
       <c r="W19" t="n">
-        <v>858.2733671922434</v>
+        <v>319.3539716399101</v>
       </c>
       <c r="X19" t="n">
-        <v>634.8299122388169</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="Y19" t="n">
-        <v>418.5834290398776</v>
+        <v>95.91051668648366</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2397.886935907448</v>
+        <v>2397.88693590745</v>
       </c>
       <c r="C20" t="n">
-        <v>2033.470514911627</v>
+        <v>2033.470514911629</v>
       </c>
       <c r="D20" t="n">
-        <v>1679.750912249467</v>
+        <v>1679.750912249469</v>
       </c>
       <c r="E20" t="n">
-        <v>1298.508755595814</v>
+        <v>1298.508755595816</v>
       </c>
       <c r="F20" t="n">
-        <v>892.068946750797</v>
+        <v>892.0689467507966</v>
       </c>
       <c r="G20" t="n">
-        <v>480.4351489638045</v>
+        <v>480.4351489638042</v>
       </c>
       <c r="H20" t="n">
-        <v>176.056037988515</v>
+        <v>176.0560379885149</v>
       </c>
       <c r="I20" t="n">
         <v>95.91051668648366</v>
       </c>
       <c r="J20" t="n">
-        <v>360.0728659043555</v>
+        <v>360.0728659043563</v>
       </c>
       <c r="K20" t="n">
-        <v>876.7285546048001</v>
+        <v>876.7285546048009</v>
       </c>
       <c r="L20" t="n">
-        <v>1569.962249801047</v>
+        <v>1569.962249801048</v>
       </c>
       <c r="M20" t="n">
-        <v>2357.924853012897</v>
+        <v>2357.924853012898</v>
       </c>
       <c r="N20" t="n">
         <v>3144.005517388441</v>
@@ -5783,19 +5783,19 @@
         <v>4458.265905366893</v>
       </c>
       <c r="U20" t="n">
-        <v>4209.192929099192</v>
+        <v>4209.192929099194</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.676137700212</v>
+        <v>3882.676137700214</v>
       </c>
       <c r="W20" t="n">
-        <v>3534.453578374689</v>
+        <v>3534.453578374691</v>
       </c>
       <c r="X20" t="n">
-        <v>3165.5339160582</v>
+        <v>3165.533916058202</v>
       </c>
       <c r="Y20" t="n">
-        <v>2779.940680026979</v>
+        <v>2779.940680026981</v>
       </c>
     </row>
     <row r="21">
@@ -5838,19 +5838,19 @@
         <v>519.8102573821111</v>
       </c>
       <c r="M21" t="n">
-        <v>1280.987535697792</v>
+        <v>1271.29753030071</v>
       </c>
       <c r="N21" t="n">
-        <v>1669.536266618841</v>
+        <v>2068.327919607184</v>
       </c>
       <c r="O21" t="n">
-        <v>2332.247682057538</v>
+        <v>2341.11563896192</v>
       </c>
       <c r="P21" t="n">
-        <v>2531.850809986591</v>
+        <v>2540.718766890972</v>
       </c>
       <c r="Q21" t="n">
-        <v>2615.361018580103</v>
+        <v>2624.228975484484</v>
       </c>
       <c r="R21" t="n">
         <v>2624.228975484484</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>466.6305049646437</v>
+        <v>673.2796576370225</v>
       </c>
       <c r="C22" t="n">
-        <v>384.848057792031</v>
+        <v>673.2796576370225</v>
       </c>
       <c r="D22" t="n">
-        <v>239.277514324286</v>
+        <v>527.7091141692777</v>
       </c>
       <c r="E22" t="n">
-        <v>95.91051668648366</v>
+        <v>384.3421165314754</v>
       </c>
       <c r="F22" t="n">
-        <v>95.91051668648366</v>
+        <v>241.998264978156</v>
       </c>
       <c r="G22" t="n">
-        <v>95.91051668648366</v>
+        <v>241.998264978156</v>
       </c>
       <c r="H22" t="n">
         <v>95.91051668648366</v>
@@ -5908,52 +5908,52 @@
         <v>95.91051668648366</v>
       </c>
       <c r="J22" t="n">
-        <v>111.0666786329384</v>
+        <v>111.0666786329387</v>
       </c>
       <c r="K22" t="n">
-        <v>262.9434072860047</v>
+        <v>262.943407286005</v>
       </c>
       <c r="L22" t="n">
-        <v>511.5737232387091</v>
+        <v>511.5737232387096</v>
       </c>
       <c r="M22" t="n">
-        <v>783.866446927306</v>
+        <v>783.8664469273064</v>
       </c>
       <c r="N22" t="n">
-        <v>1055.225219562731</v>
+        <v>1055.225219562732</v>
       </c>
       <c r="O22" t="n">
-        <v>1290.192805693336</v>
+        <v>1290.192805693337</v>
       </c>
       <c r="P22" t="n">
-        <v>1468.370553908189</v>
+        <v>1468.37055390819</v>
       </c>
       <c r="Q22" t="n">
-        <v>1509.667293259503</v>
+        <v>1509.667293259504</v>
       </c>
       <c r="R22" t="n">
-        <v>1509.667293259503</v>
+        <v>1509.667293259504</v>
       </c>
       <c r="S22" t="n">
-        <v>1509.667293259503</v>
+        <v>1509.667293259504</v>
       </c>
       <c r="T22" t="n">
-        <v>1509.667293259503</v>
+        <v>1290.324249230229</v>
       </c>
       <c r="U22" t="n">
-        <v>1225.083426271736</v>
+        <v>1112.969595789388</v>
       </c>
       <c r="V22" t="n">
-        <v>974.9450340104404</v>
+        <v>1112.969595789388</v>
       </c>
       <c r="W22" t="n">
-        <v>690.0739599180706</v>
+        <v>1112.969595789388</v>
       </c>
       <c r="X22" t="n">
-        <v>466.6305049646437</v>
+        <v>889.5261408359618</v>
       </c>
       <c r="Y22" t="n">
-        <v>466.6305049646437</v>
+        <v>673.2796576370225</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2397.886935907448</v>
+        <v>2397.88693590745</v>
       </c>
       <c r="C23" t="n">
-        <v>2033.470514911627</v>
+        <v>2033.470514911629</v>
       </c>
       <c r="D23" t="n">
-        <v>1679.750912249467</v>
+        <v>1679.750912249469</v>
       </c>
       <c r="E23" t="n">
-        <v>1298.508755595814</v>
+        <v>1298.508755595816</v>
       </c>
       <c r="F23" t="n">
-        <v>892.0689467507968</v>
+        <v>892.0689467507966</v>
       </c>
       <c r="G23" t="n">
-        <v>480.4351489638044</v>
+        <v>480.4351489638042</v>
       </c>
       <c r="H23" t="n">
-        <v>176.056037988515</v>
+        <v>176.0560379885149</v>
       </c>
       <c r="I23" t="n">
-        <v>95.91051668648365</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="J23" t="n">
         <v>360.0728659043555</v>
@@ -5999,40 +5999,40 @@
         <v>2357.924853012897</v>
       </c>
       <c r="N23" t="n">
-        <v>3144.00551738844</v>
+        <v>3144.005517388441</v>
       </c>
       <c r="O23" t="n">
-        <v>3841.091560304321</v>
+        <v>3841.091560304322</v>
       </c>
       <c r="P23" t="n">
-        <v>4398.363987369899</v>
+        <v>4398.3639873699</v>
       </c>
       <c r="Q23" t="n">
-        <v>4739.630612154365</v>
+        <v>4739.630612154366</v>
       </c>
       <c r="R23" t="n">
-        <v>4795.525834324182</v>
+        <v>4795.525834324183</v>
       </c>
       <c r="S23" t="n">
-        <v>4664.545391294557</v>
+        <v>4664.545391294558</v>
       </c>
       <c r="T23" t="n">
-        <v>4458.265905366892</v>
+        <v>4458.265905366893</v>
       </c>
       <c r="U23" t="n">
-        <v>4209.192929099193</v>
+        <v>4209.192929099194</v>
       </c>
       <c r="V23" t="n">
-        <v>3882.676137700213</v>
+        <v>3882.676137700214</v>
       </c>
       <c r="W23" t="n">
-        <v>3534.45357837469</v>
+        <v>3534.453578374691</v>
       </c>
       <c r="X23" t="n">
-        <v>3165.533916058201</v>
+        <v>3165.533916058202</v>
       </c>
       <c r="Y23" t="n">
-        <v>2779.940680026979</v>
+        <v>2779.940680026981</v>
       </c>
     </row>
     <row r="24">
@@ -6054,7 +6054,7 @@
         <v>504.8053648916574</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2708069185423</v>
+        <v>358.2708069185424</v>
       </c>
       <c r="G24" t="n">
         <v>221.3151721997858</v>
@@ -6063,7 +6063,7 @@
         <v>125.0906415125343</v>
       </c>
       <c r="I24" t="n">
-        <v>95.91051668648365</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="J24" t="n">
         <v>134.7202975173784</v>
@@ -6072,16 +6072,16 @@
         <v>279.2072192132445</v>
       </c>
       <c r="L24" t="n">
-        <v>519.8102573821111</v>
+        <v>886.9421992325357</v>
       </c>
       <c r="M24" t="n">
-        <v>1280.987535697792</v>
+        <v>1648.119477548217</v>
       </c>
       <c r="N24" t="n">
-        <v>1678.404223523222</v>
+        <v>1970.600916254573</v>
       </c>
       <c r="O24" t="n">
-        <v>2341.11563896192</v>
+        <v>2243.388635609308</v>
       </c>
       <c r="P24" t="n">
         <v>2540.718766890972</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>259.5640184305208</v>
+        <v>260.3006036697997</v>
       </c>
       <c r="C25" t="n">
-        <v>259.5640184305208</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="D25" t="n">
-        <v>259.5640184305208</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="E25" t="n">
-        <v>259.5640184305208</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="F25" t="n">
-        <v>259.5640184305208</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="G25" t="n">
-        <v>95.91051668648365</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="H25" t="n">
-        <v>95.91051668648365</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="I25" t="n">
-        <v>95.91051668648365</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="J25" t="n">
-        <v>111.0666786329386</v>
+        <v>111.0666786329387</v>
       </c>
       <c r="K25" t="n">
-        <v>262.9434072860048</v>
+        <v>262.943407286005</v>
       </c>
       <c r="L25" t="n">
-        <v>511.5737232387092</v>
+        <v>511.5737232387095</v>
       </c>
       <c r="M25" t="n">
-        <v>783.866446927306</v>
+        <v>783.8664469273064</v>
       </c>
       <c r="N25" t="n">
-        <v>1055.225219562731</v>
+        <v>1055.225219562732</v>
       </c>
       <c r="O25" t="n">
-        <v>1290.192805693336</v>
+        <v>1290.192805693337</v>
       </c>
       <c r="P25" t="n">
-        <v>1468.370553908189</v>
+        <v>1468.37055390819</v>
       </c>
       <c r="Q25" t="n">
-        <v>1509.667293259503</v>
+        <v>1509.667293259504</v>
       </c>
       <c r="R25" t="n">
-        <v>1402.046748149676</v>
+        <v>1402.046748149677</v>
       </c>
       <c r="S25" t="n">
-        <v>1402.046748149676</v>
+        <v>1402.046748149677</v>
       </c>
       <c r="T25" t="n">
-        <v>1182.703704120402</v>
+        <v>1182.703704120403</v>
       </c>
       <c r="U25" t="n">
-        <v>898.1198371326352</v>
+        <v>1182.703704120403</v>
       </c>
       <c r="V25" t="n">
-        <v>898.1198371326352</v>
+        <v>932.5653118591068</v>
       </c>
       <c r="W25" t="n">
-        <v>652.9128705151091</v>
+        <v>647.694237766737</v>
       </c>
       <c r="X25" t="n">
-        <v>652.9128705151091</v>
+        <v>424.2507828133106</v>
       </c>
       <c r="Y25" t="n">
-        <v>436.6663873161698</v>
+        <v>260.3006036697997</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2409.351408585274</v>
+        <v>2388.993209650966</v>
       </c>
       <c r="C26" t="n">
-        <v>2040.388891644862</v>
+        <v>2020.030692710554</v>
       </c>
       <c r="D26" t="n">
-        <v>1702.481391972421</v>
+        <v>1661.764994103804</v>
       </c>
       <c r="E26" t="n">
-        <v>1316.693139374177</v>
+        <v>1296.334940439868</v>
       </c>
       <c r="F26" t="n">
-        <v>905.7072345845693</v>
+        <v>885.3490356502606</v>
       </c>
       <c r="G26" t="n">
         <v>489.527340852986</v>
@@ -6221,55 +6221,55 @@
         <v>180.6021339331058</v>
       </c>
       <c r="I26" t="n">
-        <v>95.91051668648366</v>
+        <v>95.91051668648365</v>
       </c>
       <c r="J26" t="n">
-        <v>360.0728659043552</v>
+        <v>360.0728659043555</v>
       </c>
       <c r="K26" t="n">
-        <v>876.7285546047999</v>
+        <v>876.7285546048001</v>
       </c>
       <c r="L26" t="n">
         <v>1569.962249801047</v>
       </c>
       <c r="M26" t="n">
-        <v>2357.924853012898</v>
+        <v>2357.924853012897</v>
       </c>
       <c r="N26" t="n">
-        <v>3144.005517388441</v>
+        <v>3144.00551738844</v>
       </c>
       <c r="O26" t="n">
-        <v>3841.091560304322</v>
+        <v>3841.091560304321</v>
       </c>
       <c r="P26" t="n">
-        <v>4398.3639873699</v>
+        <v>4398.363987369899</v>
       </c>
       <c r="Q26" t="n">
-        <v>4739.630612154366</v>
+        <v>4739.630612154365</v>
       </c>
       <c r="R26" t="n">
-        <v>4795.525834324183</v>
+        <v>4795.525834324182</v>
       </c>
       <c r="S26" t="n">
-        <v>4680.357494284277</v>
+        <v>4659.999295349966</v>
       </c>
       <c r="T26" t="n">
-        <v>4469.531912412021</v>
+        <v>4449.17371347771</v>
       </c>
       <c r="U26" t="n">
-        <v>4215.912840199731</v>
+        <v>4195.55464126542</v>
       </c>
       <c r="V26" t="n">
-        <v>3905.20815179047</v>
+        <v>3864.49175392185</v>
       </c>
       <c r="W26" t="n">
-        <v>3552.439496520356</v>
+        <v>3518.839941017671</v>
       </c>
       <c r="X26" t="n">
-        <v>3178.973738259276</v>
+        <v>3165.7323816909</v>
       </c>
       <c r="Y26" t="n">
-        <v>2788.834406283464</v>
+        <v>2775.593049715088</v>
       </c>
     </row>
     <row r="27">
@@ -6291,7 +6291,7 @@
         <v>504.8053648916574</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2708069185424</v>
+        <v>358.2708069185423</v>
       </c>
       <c r="G27" t="n">
         <v>221.3151721997858</v>
@@ -6300,7 +6300,7 @@
         <v>125.0906415125343</v>
       </c>
       <c r="I27" t="n">
-        <v>95.91051668648366</v>
+        <v>95.91051668648365</v>
       </c>
       <c r="J27" t="n">
         <v>134.7202975173784</v>
@@ -6309,16 +6309,16 @@
         <v>279.2072192132445</v>
       </c>
       <c r="L27" t="n">
-        <v>519.8102573821111</v>
+        <v>886.9421992325357</v>
       </c>
       <c r="M27" t="n">
-        <v>1271.29753030071</v>
+        <v>1648.119477548217</v>
       </c>
       <c r="N27" t="n">
-        <v>2068.327919607184</v>
+        <v>1970.600916254573</v>
       </c>
       <c r="O27" t="n">
-        <v>2341.11563896192</v>
+        <v>2243.388635609308</v>
       </c>
       <c r="P27" t="n">
         <v>2540.718766890972</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>757.8726444324664</v>
+        <v>646.4165426460877</v>
       </c>
       <c r="C28" t="n">
-        <v>757.8726444324664</v>
+        <v>497.8385586524893</v>
       </c>
       <c r="D28" t="n">
-        <v>628.1142039544401</v>
+        <v>497.8385586524893</v>
       </c>
       <c r="E28" t="n">
-        <v>500.5593093063565</v>
+        <v>370.2836640044048</v>
       </c>
       <c r="F28" t="n">
-        <v>374.0275607427557</v>
+        <v>243.751915440803</v>
       </c>
       <c r="G28" t="n">
-        <v>226.1861619884373</v>
+        <v>95.91051668648365</v>
       </c>
       <c r="H28" t="n">
-        <v>95.91051668648366</v>
+        <v>95.91051668648365</v>
       </c>
       <c r="I28" t="n">
-        <v>95.91051668648366</v>
+        <v>95.91051668648365</v>
       </c>
       <c r="J28" t="n">
-        <v>126.5641207731618</v>
+        <v>126.564120773161</v>
       </c>
       <c r="K28" t="n">
-        <v>293.9382915664514</v>
+        <v>293.9382915664497</v>
       </c>
       <c r="L28" t="n">
-        <v>558.0660496593791</v>
+        <v>558.0660496593765</v>
       </c>
       <c r="M28" t="n">
-        <v>845.8562154881994</v>
+        <v>845.8562154881957</v>
       </c>
       <c r="N28" t="n">
-        <v>1132.712430263848</v>
+        <v>1132.712430263844</v>
       </c>
       <c r="O28" t="n">
-        <v>1383.177458534676</v>
+        <v>1383.177458534671</v>
       </c>
       <c r="P28" t="n">
-        <v>1576.852648889752</v>
+        <v>1576.852648889746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1633.64683038129</v>
+        <v>1633.646830381283</v>
       </c>
       <c r="R28" t="n">
-        <v>1633.64683038129</v>
+        <v>1541.838388261174</v>
       </c>
       <c r="S28" t="n">
-        <v>1453.661954611188</v>
+        <v>1484.831511817601</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.661954611188</v>
+        <v>1484.831511817601</v>
       </c>
       <c r="U28" t="n">
-        <v>1184.890190613141</v>
+        <v>1484.831511817601</v>
       </c>
       <c r="V28" t="n">
-        <v>1184.890190613141</v>
+        <v>1484.831511817601</v>
       </c>
       <c r="W28" t="n">
-        <v>965.5039963961742</v>
+        <v>1215.772540714949</v>
       </c>
       <c r="X28" t="n">
-        <v>757.8726444324664</v>
+        <v>1008.14118875124</v>
       </c>
       <c r="Y28" t="n">
-        <v>757.8726444324664</v>
+        <v>807.7068085420187</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2381.876367285032</v>
+        <v>2409.351408585275</v>
       </c>
       <c r="C29" t="n">
-        <v>2033.27204927893</v>
+        <v>2040.388891644863</v>
       </c>
       <c r="D29" t="n">
-        <v>1682.123193038112</v>
+        <v>1682.123193038113</v>
       </c>
       <c r="E29" t="n">
-        <v>1296.334940439867</v>
+        <v>1296.334940439868</v>
       </c>
       <c r="F29" t="n">
-        <v>885.3490356502598</v>
+        <v>885.3490356502607</v>
       </c>
       <c r="G29" t="n">
-        <v>469.1691419186765</v>
+        <v>469.1691419186774</v>
       </c>
       <c r="H29" t="n">
         <v>180.6021339331058</v>
       </c>
       <c r="I29" t="n">
-        <v>95.91051668648366</v>
+        <v>95.91051668648367</v>
       </c>
       <c r="J29" t="n">
         <v>360.0728659043561</v>
       </c>
       <c r="K29" t="n">
-        <v>876.7285546048008</v>
+        <v>876.7285546048006</v>
       </c>
       <c r="L29" t="n">
         <v>1569.962249801048</v>
@@ -6482,31 +6482,31 @@
         <v>4398.3639873699</v>
       </c>
       <c r="Q29" t="n">
-        <v>4739.630612154366</v>
+        <v>4739.630612154367</v>
       </c>
       <c r="R29" t="n">
-        <v>4795.525834324183</v>
+        <v>4795.525834324184</v>
       </c>
       <c r="S29" t="n">
-        <v>4659.999295349967</v>
+        <v>4680.357494284277</v>
       </c>
       <c r="T29" t="n">
-        <v>4449.173713477711</v>
+        <v>4489.89011134633</v>
       </c>
       <c r="U29" t="n">
-        <v>4195.554641265421</v>
+        <v>4236.27103913404</v>
       </c>
       <c r="V29" t="n">
-        <v>3864.49175392185</v>
+        <v>3905.208151790469</v>
       </c>
       <c r="W29" t="n">
-        <v>3511.723098651736</v>
+        <v>3559.556338886288</v>
       </c>
       <c r="X29" t="n">
-        <v>3138.257340390656</v>
+        <v>3186.090580625209</v>
       </c>
       <c r="Y29" t="n">
-        <v>2748.118008414845</v>
+        <v>2795.951248649397</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4302588394911</v>
+        <v>987.4302588394913</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9772295583641</v>
+        <v>812.9772295583643</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0428198971128</v>
+        <v>664.0428198971131</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8053648916574</v>
+        <v>504.8053648916575</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2708069185424</v>
+        <v>358.2708069185425</v>
       </c>
       <c r="G30" t="n">
         <v>221.3151721997858</v>
@@ -6537,28 +6537,28 @@
         <v>125.0906415125343</v>
       </c>
       <c r="I30" t="n">
-        <v>95.91051668648366</v>
+        <v>95.91051668648367</v>
       </c>
       <c r="J30" t="n">
-        <v>259.5504225043831</v>
+        <v>134.7202975173784</v>
       </c>
       <c r="K30" t="n">
-        <v>404.0373442002492</v>
+        <v>279.2072192132445</v>
       </c>
       <c r="L30" t="n">
-        <v>922.4625598856189</v>
+        <v>740.5153786601472</v>
       </c>
       <c r="M30" t="n">
-        <v>1222.5918250888</v>
+        <v>1040.644643863329</v>
       </c>
       <c r="N30" t="n">
-        <v>1545.073263795156</v>
+        <v>1363.126082569685</v>
       </c>
       <c r="O30" t="n">
-        <v>1817.860983149891</v>
+        <v>2025.837498008382</v>
       </c>
       <c r="P30" t="n">
-        <v>2332.742252032482</v>
+        <v>2540.718766890972</v>
       </c>
       <c r="Q30" t="n">
         <v>2624.228975484484</v>
@@ -6576,7 +6576,7 @@
         <v>2060.64685978999</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.494751558247</v>
+        <v>1825.494751558248</v>
       </c>
       <c r="W30" t="n">
         <v>1571.257394830046</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>349.9971598981682</v>
+        <v>354.6402841110752</v>
       </c>
       <c r="C31" t="n">
-        <v>349.9971598981682</v>
+        <v>354.6402841110752</v>
       </c>
       <c r="D31" t="n">
-        <v>349.9971598981682</v>
+        <v>354.6402841110752</v>
       </c>
       <c r="E31" t="n">
-        <v>222.4422652500845</v>
+        <v>354.6402841110752</v>
       </c>
       <c r="F31" t="n">
-        <v>95.91051668648366</v>
+        <v>354.6402841110752</v>
       </c>
       <c r="G31" t="n">
-        <v>95.91051668648366</v>
+        <v>226.1861619884383</v>
       </c>
       <c r="H31" t="n">
-        <v>95.91051668648366</v>
+        <v>95.91051668648367</v>
       </c>
       <c r="I31" t="n">
-        <v>95.91051668648366</v>
+        <v>95.91051668648367</v>
       </c>
       <c r="J31" t="n">
-        <v>126.5641207731619</v>
+        <v>126.5641207731611</v>
       </c>
       <c r="K31" t="n">
-        <v>293.9382915664515</v>
+        <v>293.9382915664498</v>
       </c>
       <c r="L31" t="n">
-        <v>558.0660496593792</v>
+        <v>558.0660496593766</v>
       </c>
       <c r="M31" t="n">
-        <v>845.8562154881994</v>
+        <v>845.8562154881959</v>
       </c>
       <c r="N31" t="n">
-        <v>1132.712430263848</v>
+        <v>1132.712430263844</v>
       </c>
       <c r="O31" t="n">
-        <v>1383.177458534676</v>
+        <v>1383.177458534671</v>
       </c>
       <c r="P31" t="n">
-        <v>1576.852648889752</v>
+        <v>1576.852648889746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1633.646830381289</v>
+        <v>1633.646830381283</v>
       </c>
       <c r="R31" t="n">
-        <v>1541.838388261182</v>
+        <v>1541.838388261174</v>
       </c>
       <c r="S31" t="n">
-        <v>1541.838388261182</v>
+        <v>1361.853512491072</v>
       </c>
       <c r="T31" t="n">
-        <v>1338.307447221626</v>
+        <v>1158.322571451515</v>
       </c>
       <c r="U31" t="n">
-        <v>1069.535683223578</v>
+        <v>1158.322571451515</v>
       </c>
       <c r="V31" t="n">
-        <v>835.2093939520007</v>
+        <v>923.9962821799365</v>
       </c>
       <c r="W31" t="n">
-        <v>566.1504228493496</v>
+        <v>923.9962821799365</v>
       </c>
       <c r="X31" t="n">
-        <v>358.5190708856418</v>
+        <v>716.3649302162278</v>
       </c>
       <c r="Y31" t="n">
-        <v>349.9971598981682</v>
+        <v>515.9305500070063</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1992.555651410311</v>
       </c>
       <c r="D32" t="n">
-        <v>1634.28995280356</v>
+        <v>1702.481391972421</v>
       </c>
       <c r="E32" t="n">
         <v>1316.693139374177</v>
@@ -6698,10 +6698,10 @@
         <v>95.91051668648366</v>
       </c>
       <c r="J32" t="n">
-        <v>360.0728659043555</v>
+        <v>360.0728659043552</v>
       </c>
       <c r="K32" t="n">
-        <v>876.7285546048001</v>
+        <v>876.7285546048006</v>
       </c>
       <c r="L32" t="n">
         <v>1569.962249801048</v>
@@ -6777,25 +6777,25 @@
         <v>95.91051668648366</v>
       </c>
       <c r="J33" t="n">
-        <v>259.5504225043831</v>
+        <v>134.7202975173784</v>
       </c>
       <c r="K33" t="n">
-        <v>404.0373442002492</v>
+        <v>279.2072192132445</v>
       </c>
       <c r="L33" t="n">
-        <v>1011.77232421954</v>
+        <v>740.5153786601472</v>
       </c>
       <c r="M33" t="n">
-        <v>1311.901589422722</v>
+        <v>1040.644643863329</v>
       </c>
       <c r="N33" t="n">
-        <v>1634.383028129078</v>
+        <v>1363.126082569685</v>
       </c>
       <c r="O33" t="n">
-        <v>1907.170747483813</v>
+        <v>2025.837498008382</v>
       </c>
       <c r="P33" t="n">
-        <v>2332.742252032482</v>
+        <v>2540.718766890972</v>
       </c>
       <c r="Q33" t="n">
         <v>2624.228975484484</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>651.4378096008287</v>
+        <v>651.437809600829</v>
       </c>
       <c r="C34" t="n">
-        <v>552.4197194715631</v>
+        <v>552.4197194715634</v>
       </c>
       <c r="D34" t="n">
-        <v>472.2211728578687</v>
+        <v>472.2211728578691</v>
       </c>
       <c r="E34" t="n">
-        <v>394.226172074117</v>
+        <v>394.2261720741174</v>
       </c>
       <c r="F34" t="n">
-        <v>317.254317374848</v>
+        <v>317.2543173748484</v>
       </c>
       <c r="G34" t="n">
-        <v>218.9728124848613</v>
+        <v>218.9728124848616</v>
       </c>
       <c r="H34" t="n">
-        <v>138.2570610472395</v>
+        <v>138.2570610472398</v>
       </c>
       <c r="I34" t="n">
         <v>95.91051668648366</v>
@@ -6859,10 +6859,10 @@
         <v>175.1377727495936</v>
       </c>
       <c r="K34" t="n">
-        <v>391.0855955193148</v>
+        <v>391.0855955193147</v>
       </c>
       <c r="L34" t="n">
-        <v>703.787005588674</v>
+        <v>703.7870055886741</v>
       </c>
       <c r="M34" t="n">
         <v>1040.150823393926</v>
@@ -6871,7 +6871,7 @@
         <v>1375.580690146006</v>
       </c>
       <c r="O34" t="n">
-        <v>1674.619370393265</v>
+        <v>1674.619370393266</v>
       </c>
       <c r="P34" t="n">
         <v>1916.868212724773</v>
@@ -6883,25 +6883,25 @@
         <v>1979.987497936966</v>
       </c>
       <c r="S34" t="n">
-        <v>1849.562516031196</v>
+        <v>1849.562516031197</v>
       </c>
       <c r="T34" t="n">
-        <v>1695.591468855972</v>
+        <v>1695.591468855973</v>
       </c>
       <c r="U34" t="n">
         <v>1476.379598722257</v>
       </c>
       <c r="V34" t="n">
-        <v>1291.613203315011</v>
+        <v>1291.613203315012</v>
       </c>
       <c r="W34" t="n">
         <v>1072.114126076692</v>
       </c>
       <c r="X34" t="n">
-        <v>914.0426679773159</v>
+        <v>914.0426679773163</v>
       </c>
       <c r="Y34" t="n">
-        <v>763.168181632427</v>
+        <v>763.1681816324274</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2361.518168350723</v>
       </c>
       <c r="C35" t="n">
-        <v>1992.555651410312</v>
+        <v>1992.555651410311</v>
       </c>
       <c r="D35" t="n">
-        <v>1634.289952803561</v>
+        <v>1634.28995280356</v>
       </c>
       <c r="E35" t="n">
-        <v>1248.501700205317</v>
+        <v>1248.501700205316</v>
       </c>
       <c r="F35" t="n">
-        <v>837.5157954157096</v>
+        <v>837.5157954157087</v>
       </c>
       <c r="G35" t="n">
         <v>489.527340852986</v>
@@ -6932,19 +6932,19 @@
         <v>180.6021339331058</v>
       </c>
       <c r="I35" t="n">
-        <v>95.91051668648367</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="J35" t="n">
-        <v>360.0728659043561</v>
+        <v>360.0728659043555</v>
       </c>
       <c r="K35" t="n">
-        <v>876.7285546048006</v>
+        <v>876.7285546048001</v>
       </c>
       <c r="L35" t="n">
-        <v>1569.962249801048</v>
+        <v>1569.962249801047</v>
       </c>
       <c r="M35" t="n">
-        <v>2357.924853012898</v>
+        <v>2357.924853012897</v>
       </c>
       <c r="N35" t="n">
         <v>3144.005517388441</v>
@@ -6956,28 +6956,28 @@
         <v>4398.3639873699</v>
       </c>
       <c r="Q35" t="n">
-        <v>4739.630612154367</v>
+        <v>4739.630612154366</v>
       </c>
       <c r="R35" t="n">
-        <v>4795.525834324184</v>
+        <v>4795.525834324183</v>
       </c>
       <c r="S35" t="n">
-        <v>4659.999295349968</v>
+        <v>4659.999295349967</v>
       </c>
       <c r="T35" t="n">
-        <v>4449.173713477712</v>
+        <v>4449.173713477711</v>
       </c>
       <c r="U35" t="n">
-        <v>4195.554641265422</v>
+        <v>4195.554641265421</v>
       </c>
       <c r="V35" t="n">
-        <v>3864.491753921851</v>
+        <v>3864.49175392185</v>
       </c>
       <c r="W35" t="n">
-        <v>3511.723098651737</v>
+        <v>3511.723098651736</v>
       </c>
       <c r="X35" t="n">
-        <v>3138.257340390657</v>
+        <v>3138.257340390656</v>
       </c>
       <c r="Y35" t="n">
         <v>2748.118008414845</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4302588394913</v>
+        <v>987.4302588394911</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9772295583643</v>
+        <v>812.9772295583641</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0428198971131</v>
+        <v>664.0428198971128</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8053648916575</v>
+        <v>504.8053648916574</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2708069185425</v>
+        <v>358.2708069185424</v>
       </c>
       <c r="G36" t="n">
         <v>221.3151721997858</v>
@@ -7011,22 +7011,22 @@
         <v>125.0906415125343</v>
       </c>
       <c r="I36" t="n">
-        <v>95.91051668648367</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="J36" t="n">
-        <v>259.5504225043832</v>
+        <v>134.7202975173784</v>
       </c>
       <c r="K36" t="n">
-        <v>665.857928842702</v>
+        <v>279.2072192132445</v>
       </c>
       <c r="L36" t="n">
-        <v>1130.43907474411</v>
+        <v>740.5153786601472</v>
       </c>
       <c r="M36" t="n">
-        <v>1430.568339947291</v>
+        <v>1040.644643863329</v>
       </c>
       <c r="N36" t="n">
-        <v>1753.049778653647</v>
+        <v>1363.126082569685</v>
       </c>
       <c r="O36" t="n">
         <v>2025.837498008382</v>
@@ -7050,7 +7050,7 @@
         <v>2060.64685978999</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.494751558248</v>
+        <v>1825.494751558247</v>
       </c>
       <c r="W36" t="n">
         <v>1571.257394830046</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>651.4378096008285</v>
+        <v>651.4378096008286</v>
       </c>
       <c r="C37" t="n">
-        <v>552.4197194715629</v>
+        <v>552.419719471563</v>
       </c>
       <c r="D37" t="n">
         <v>472.2211728578685</v>
@@ -7081,7 +7081,7 @@
         <v>394.2261720741167</v>
       </c>
       <c r="F37" t="n">
-        <v>317.2543173748477</v>
+        <v>317.2543173748479</v>
       </c>
       <c r="G37" t="n">
         <v>218.9728124848612</v>
@@ -7090,19 +7090,19 @@
         <v>138.2570610472393</v>
       </c>
       <c r="I37" t="n">
-        <v>95.91051668648367</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="J37" t="n">
-        <v>175.1377727495936</v>
+        <v>175.1377727495935</v>
       </c>
       <c r="K37" t="n">
         <v>391.0855955193147</v>
       </c>
       <c r="L37" t="n">
-        <v>703.787005588674</v>
+        <v>703.7870055886739</v>
       </c>
       <c r="M37" t="n">
-        <v>1040.150823393926</v>
+        <v>1040.150823393925</v>
       </c>
       <c r="N37" t="n">
         <v>1375.580690146006</v>
@@ -7117,7 +7117,7 @@
         <v>2022.236046192742</v>
       </c>
       <c r="R37" t="n">
-        <v>1979.987497936967</v>
+        <v>1979.987497936966</v>
       </c>
       <c r="S37" t="n">
         <v>1849.562516031197</v>
@@ -7138,7 +7138,7 @@
         <v>914.0426679773157</v>
       </c>
       <c r="Y37" t="n">
-        <v>763.1681816324268</v>
+        <v>763.1681816324269</v>
       </c>
     </row>
     <row r="38">
@@ -7166,34 +7166,34 @@
         <v>421.3359016841254</v>
       </c>
       <c r="H38" t="n">
-        <v>180.6021339331058</v>
+        <v>112.4106947642452</v>
       </c>
       <c r="I38" t="n">
         <v>95.91051668648366</v>
       </c>
       <c r="J38" t="n">
-        <v>360.0728659043555</v>
+        <v>360.0728659043554</v>
       </c>
       <c r="K38" t="n">
         <v>876.7285546048001</v>
       </c>
       <c r="L38" t="n">
-        <v>1569.962249801048</v>
+        <v>1569.962249801047</v>
       </c>
       <c r="M38" t="n">
-        <v>2357.924853012898</v>
+        <v>2357.924853012897</v>
       </c>
       <c r="N38" t="n">
-        <v>3144.005517388441</v>
+        <v>3144.00551738844</v>
       </c>
       <c r="O38" t="n">
-        <v>3841.091560304322</v>
+        <v>3841.091560304321</v>
       </c>
       <c r="P38" t="n">
-        <v>4398.3639873699</v>
+        <v>4398.363987369899</v>
       </c>
       <c r="Q38" t="n">
-        <v>4739.630612154366</v>
+        <v>4739.630612154365</v>
       </c>
       <c r="R38" t="n">
         <v>4795.525834324183</v>
@@ -7254,22 +7254,22 @@
         <v>134.7202975173784</v>
       </c>
       <c r="K39" t="n">
-        <v>541.0278038556972</v>
+        <v>279.2072192132445</v>
       </c>
       <c r="L39" t="n">
-        <v>1148.762783874989</v>
+        <v>519.8102573821111</v>
       </c>
       <c r="M39" t="n">
-        <v>1448.89204907817</v>
+        <v>1271.29753030071</v>
       </c>
       <c r="N39" t="n">
-        <v>1771.373487784526</v>
+        <v>2068.327919607184</v>
       </c>
       <c r="O39" t="n">
-        <v>2044.161207139261</v>
+        <v>2341.11563896192</v>
       </c>
       <c r="P39" t="n">
-        <v>2332.742252032482</v>
+        <v>2540.718766890972</v>
       </c>
       <c r="Q39" t="n">
         <v>2624.228975484484</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>651.4378096008287</v>
+        <v>651.4378096008289</v>
       </c>
       <c r="C40" t="n">
-        <v>552.4197194715631</v>
+        <v>552.4197194715633</v>
       </c>
       <c r="D40" t="n">
-        <v>472.2211728578687</v>
+        <v>472.2211728578689</v>
       </c>
       <c r="E40" t="n">
-        <v>394.2261720741168</v>
+        <v>394.2261720741171</v>
       </c>
       <c r="F40" t="n">
-        <v>317.2543173748478</v>
+        <v>317.2543173748481</v>
       </c>
       <c r="G40" t="n">
-        <v>218.9728124848615</v>
+        <v>218.9728124848614</v>
       </c>
       <c r="H40" t="n">
         <v>138.2570610472396</v>
@@ -7330,16 +7330,16 @@
         <v>95.91051668648366</v>
       </c>
       <c r="J40" t="n">
-        <v>175.1377727495933</v>
+        <v>175.1377727495935</v>
       </c>
       <c r="K40" t="n">
-        <v>391.0855955193144</v>
+        <v>391.0855955193147</v>
       </c>
       <c r="L40" t="n">
-        <v>703.7870055886738</v>
+        <v>703.787005588674</v>
       </c>
       <c r="M40" t="n">
-        <v>1040.150823393925</v>
+        <v>1040.150823393926</v>
       </c>
       <c r="N40" t="n">
         <v>1375.580690146006</v>
@@ -7354,7 +7354,7 @@
         <v>2022.236046192742</v>
       </c>
       <c r="R40" t="n">
-        <v>1979.987497936966</v>
+        <v>1979.987497936967</v>
       </c>
       <c r="S40" t="n">
         <v>1849.562516031197</v>
@@ -7366,16 +7366,16 @@
         <v>1476.379598722257</v>
       </c>
       <c r="V40" t="n">
-        <v>1291.613203315011</v>
+        <v>1291.613203315012</v>
       </c>
       <c r="W40" t="n">
         <v>1072.114126076692</v>
       </c>
       <c r="X40" t="n">
-        <v>914.0426679773159</v>
+        <v>914.0426679773161</v>
       </c>
       <c r="Y40" t="n">
-        <v>763.1681816324271</v>
+        <v>763.1681816324273</v>
       </c>
     </row>
     <row r="41">
@@ -7409,7 +7409,7 @@
         <v>95.91051668648366</v>
       </c>
       <c r="J41" t="n">
-        <v>360.0728659043555</v>
+        <v>360.0728659043554</v>
       </c>
       <c r="K41" t="n">
         <v>876.7285546048001</v>
@@ -7421,22 +7421,22 @@
         <v>2357.924853012897</v>
       </c>
       <c r="N41" t="n">
-        <v>3144.005517388441</v>
+        <v>3144.00551738844</v>
       </c>
       <c r="O41" t="n">
-        <v>3841.091560304322</v>
+        <v>3841.091560304321</v>
       </c>
       <c r="P41" t="n">
-        <v>4398.3639873699</v>
+        <v>4398.363987369899</v>
       </c>
       <c r="Q41" t="n">
-        <v>4739.630612154366</v>
+        <v>4739.630612154365</v>
       </c>
       <c r="R41" t="n">
         <v>4795.525834324183</v>
       </c>
       <c r="S41" t="n">
-        <v>4728.190734518827</v>
+        <v>4659.999295349967</v>
       </c>
       <c r="T41" t="n">
         <v>4517.365152646572</v>
@@ -7476,7 +7476,7 @@
         <v>504.8053648916574</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2708069185423</v>
+        <v>358.2708069185424</v>
       </c>
       <c r="G42" t="n">
         <v>221.3151721997858</v>
@@ -7491,13 +7491,13 @@
         <v>134.7202975173784</v>
       </c>
       <c r="K42" t="n">
-        <v>499.91234049128</v>
+        <v>279.2072192132445</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5153786601468</v>
+        <v>740.5153786601472</v>
       </c>
       <c r="M42" t="n">
-        <v>1040.644643863328</v>
+        <v>1040.644643863329</v>
       </c>
       <c r="N42" t="n">
         <v>1363.126082569685</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>651.4378096008284</v>
+        <v>651.4378096008286</v>
       </c>
       <c r="C43" t="n">
-        <v>552.4197194715628</v>
+        <v>552.419719471563</v>
       </c>
       <c r="D43" t="n">
-        <v>472.2211728578684</v>
+        <v>472.2211728578686</v>
       </c>
       <c r="E43" t="n">
-        <v>394.2261720741166</v>
+        <v>394.2261720741168</v>
       </c>
       <c r="F43" t="n">
-        <v>317.2543173748476</v>
+        <v>317.2543173748478</v>
       </c>
       <c r="G43" t="n">
-        <v>218.9728124848609</v>
+        <v>218.9728124848612</v>
       </c>
       <c r="H43" t="n">
         <v>138.2570610472396</v>
@@ -7573,10 +7573,10 @@
         <v>391.0855955193147</v>
       </c>
       <c r="L43" t="n">
-        <v>703.7870055886742</v>
+        <v>703.7870055886741</v>
       </c>
       <c r="M43" t="n">
-        <v>1040.150823393926</v>
+        <v>1040.150823393925</v>
       </c>
       <c r="N43" t="n">
         <v>1375.580690146006</v>
@@ -7609,10 +7609,10 @@
         <v>1072.114126076692</v>
       </c>
       <c r="X43" t="n">
-        <v>914.0426679773157</v>
+        <v>914.0426679773155</v>
       </c>
       <c r="Y43" t="n">
-        <v>763.1681816324267</v>
+        <v>763.1681816324269</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2361.518168350723</v>
+        <v>2429.709607519583</v>
       </c>
       <c r="C44" t="n">
-        <v>1992.555651410312</v>
+        <v>2060.747090579172</v>
       </c>
       <c r="D44" t="n">
-        <v>1634.289952803561</v>
+        <v>1702.481391972421</v>
       </c>
       <c r="E44" t="n">
-        <v>1248.501700205317</v>
+        <v>1316.693139374177</v>
       </c>
       <c r="F44" t="n">
         <v>905.7072345845693</v>
@@ -7643,13 +7643,13 @@
         <v>180.6021339331058</v>
       </c>
       <c r="I44" t="n">
-        <v>95.91051668648367</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="J44" t="n">
         <v>360.0728659043561</v>
       </c>
       <c r="K44" t="n">
-        <v>876.7285546048006</v>
+        <v>876.728554604801</v>
       </c>
       <c r="L44" t="n">
         <v>1569.962249801048</v>
@@ -7658,40 +7658,40 @@
         <v>2357.924853012898</v>
       </c>
       <c r="N44" t="n">
-        <v>3144.005517388441</v>
+        <v>3144.005517388442</v>
       </c>
       <c r="O44" t="n">
-        <v>3841.091560304322</v>
+        <v>3841.091560304323</v>
       </c>
       <c r="P44" t="n">
         <v>4398.3639873699</v>
       </c>
       <c r="Q44" t="n">
-        <v>4739.630612154367</v>
+        <v>4739.630612154366</v>
       </c>
       <c r="R44" t="n">
-        <v>4795.525834324184</v>
+        <v>4795.525834324183</v>
       </c>
       <c r="S44" t="n">
-        <v>4659.999295349968</v>
+        <v>4728.190734518827</v>
       </c>
       <c r="T44" t="n">
-        <v>4449.173713477712</v>
+        <v>4517.365152646572</v>
       </c>
       <c r="U44" t="n">
-        <v>4195.554641265422</v>
+        <v>4263.746080434282</v>
       </c>
       <c r="V44" t="n">
-        <v>3864.491753921851</v>
+        <v>3932.683193090711</v>
       </c>
       <c r="W44" t="n">
-        <v>3511.723098651737</v>
+        <v>3579.914537820597</v>
       </c>
       <c r="X44" t="n">
-        <v>3138.257340390657</v>
+        <v>3206.448779559517</v>
       </c>
       <c r="Y44" t="n">
-        <v>2748.118008414845</v>
+        <v>2816.309447583705</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4302588394913</v>
+        <v>987.4302588394911</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9772295583643</v>
+        <v>812.9772295583641</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0428198971131</v>
+        <v>664.0428198971128</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8053648916575</v>
+        <v>504.8053648916574</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2708069185425</v>
+        <v>358.2708069185424</v>
       </c>
       <c r="G45" t="n">
         <v>221.3151721997858</v>
@@ -7722,31 +7722,31 @@
         <v>125.0906415125343</v>
       </c>
       <c r="I45" t="n">
-        <v>95.91051668648367</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="J45" t="n">
-        <v>259.5504225043832</v>
+        <v>134.7202975173784</v>
       </c>
       <c r="K45" t="n">
-        <v>665.857928842702</v>
+        <v>279.2072192132445</v>
       </c>
       <c r="L45" t="n">
-        <v>913.5946029812374</v>
+        <v>519.8102573821111</v>
       </c>
       <c r="M45" t="n">
-        <v>1213.723868184419</v>
+        <v>1271.29753030071</v>
       </c>
       <c r="N45" t="n">
-        <v>1536.205306890775</v>
+        <v>2068.327919607184</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.99302624551</v>
+        <v>2341.11563896192</v>
       </c>
       <c r="P45" t="n">
-        <v>2323.8742951281</v>
+        <v>2540.718766890972</v>
       </c>
       <c r="Q45" t="n">
-        <v>2615.361018580103</v>
+        <v>2624.228975484484</v>
       </c>
       <c r="R45" t="n">
         <v>2624.228975484484</v>
@@ -7761,7 +7761,7 @@
         <v>2060.64685978999</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.494751558248</v>
+        <v>1825.494751558247</v>
       </c>
       <c r="W45" t="n">
         <v>1571.257394830046</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>651.4378096008288</v>
+        <v>651.437809600829</v>
       </c>
       <c r="C46" t="n">
-        <v>552.4197194715632</v>
+        <v>552.4197194715634</v>
       </c>
       <c r="D46" t="n">
-        <v>472.2211728578687</v>
+        <v>472.221172857869</v>
       </c>
       <c r="E46" t="n">
-        <v>394.226172074117</v>
+        <v>394.2261720741172</v>
       </c>
       <c r="F46" t="n">
-        <v>317.2543173748479</v>
+        <v>317.2543173748481</v>
       </c>
       <c r="G46" t="n">
         <v>218.9728124848615</v>
@@ -7801,16 +7801,16 @@
         <v>138.2570610472396</v>
       </c>
       <c r="I46" t="n">
-        <v>95.91051668648367</v>
+        <v>95.91051668648366</v>
       </c>
       <c r="J46" t="n">
-        <v>175.1377727495935</v>
+        <v>175.1377727495936</v>
       </c>
       <c r="K46" t="n">
-        <v>391.0855955193147</v>
+        <v>391.0855955193148</v>
       </c>
       <c r="L46" t="n">
-        <v>703.787005588674</v>
+        <v>703.7870055886741</v>
       </c>
       <c r="M46" t="n">
         <v>1040.150823393926</v>
@@ -7828,28 +7828,28 @@
         <v>2022.236046192742</v>
       </c>
       <c r="R46" t="n">
-        <v>1979.987497936967</v>
+        <v>1979.987497936966</v>
       </c>
       <c r="S46" t="n">
         <v>1849.562516031197</v>
       </c>
       <c r="T46" t="n">
-        <v>1695.591468855973</v>
+        <v>1695.591468855972</v>
       </c>
       <c r="U46" t="n">
         <v>1476.379598722257</v>
       </c>
       <c r="V46" t="n">
-        <v>1291.613203315012</v>
+        <v>1291.613203315011</v>
       </c>
       <c r="W46" t="n">
         <v>1072.114126076692</v>
       </c>
       <c r="X46" t="n">
-        <v>914.0426679773161</v>
+        <v>914.0426679773157</v>
       </c>
       <c r="Y46" t="n">
-        <v>763.1681816324271</v>
+        <v>763.1681816324274</v>
       </c>
     </row>
   </sheetData>
@@ -8061,19 +8061,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429921</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>392.8337743093848</v>
+        <v>264.0572753751421</v>
       </c>
       <c r="N3" t="n">
-        <v>302.0260804039067</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
         <v>133.663080786811</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,13 +8304,13 @@
         <v>399.2039605324505</v>
       </c>
       <c r="N6" t="n">
-        <v>387.9064735273547</v>
+        <v>212.358227476139</v>
       </c>
       <c r="O6" t="n">
-        <v>272.0288590235227</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>130.3661252938572</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>222.9344659374102</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>455.9171795105228</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>36.56413758467285</v>
+        <v>36.56413758467284</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>16.16322512530331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>455.9171795105228</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>36.56413758467285</v>
+        <v>36.56413758467284</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>222.9344659374102</v>
       </c>
       <c r="L18" t="n">
-        <v>7.205692898655229</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>36.56413758467285</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720746</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9486,13 +9486,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>455.9171795105231</v>
       </c>
       <c r="N21" t="n">
-        <v>66.7346386006995</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>36.56413758467285</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,19 +9720,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>75.69217082734752</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>98.71414480061765</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9957,19 +9957,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>455.9171795105231</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>98.71414480061765</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>280.6284621378819</v>
+        <v>222.9344659374102</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>36.56413758467285</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>222.9344659374102</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>228.2508854743598</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>36.56413758467285</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>226.2405128611524</v>
+        <v>222.9344659374102</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298347</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,25 +10902,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>455.9171795105231</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>89.87668380218997</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>36.56413758467285</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298253</v>
+        <v>65.71641987298347</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>222.9344659374096</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>222.9344659374102</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>36.56413758467284</v>
+        <v>36.56413758467285</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>7.205692898655229</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>455.9171795105231</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>36.56413758467285</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-3.285466598333135e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>175.3313451967923</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>162.7461861134828</v>
       </c>
       <c r="D13" t="n">
-        <v>144.1148380330676</v>
+        <v>144.1148380330674</v>
       </c>
       <c r="E13" t="n">
-        <v>141.9333276614244</v>
+        <v>141.9333276614242</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>140.9204130377863</v>
       </c>
       <c r="G13" t="n">
-        <v>162.0169667265969</v>
+        <v>162.0169667265967</v>
       </c>
       <c r="H13" t="n">
-        <v>144.6268708087558</v>
+        <v>144.6268708087556</v>
       </c>
       <c r="I13" t="n">
-        <v>106.6413558026585</v>
+        <v>106.6413558026583</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>106.5443396587281</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>281.7380283178888</v>
+        <v>43.97583416582356</v>
       </c>
       <c r="V13" t="n">
-        <v>247.6370083386832</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>282.0223633514462</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.20473653154803</v>
+        <v>214.0840183669498</v>
       </c>
     </row>
     <row r="14">
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-2.701199264265597e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>175.3313451967925</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>162.746186113483</v>
+        <v>162.7461861134828</v>
       </c>
       <c r="D16" t="n">
-        <v>144.1148380330675</v>
+        <v>144.1148380330674</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>141.9333276614242</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>140.9204130377863</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>162.0169667265967</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.6268708087556</v>
       </c>
       <c r="I16" t="n">
-        <v>28.13670581681572</v>
+        <v>106.6413558026583</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>104.6424986174515</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>281.7380283178888</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>247.6370083386832</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>282.0223633514462</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>221.2090204038923</v>
+        <v>221.2090204038922</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>214.0840183669498</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>175.3313451967923</v>
       </c>
       <c r="C19" t="n">
-        <v>162.746186113483</v>
+        <v>162.7461861134828</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>144.1148380330674</v>
       </c>
       <c r="E19" t="n">
-        <v>141.9333276614243</v>
+        <v>141.9333276614242</v>
       </c>
       <c r="F19" t="n">
-        <v>140.9204130377864</v>
+        <v>140.9204130377863</v>
       </c>
       <c r="G19" t="n">
-        <v>162.0169667265968</v>
+        <v>162.0169667265967</v>
       </c>
       <c r="H19" t="n">
-        <v>144.6268708087557</v>
+        <v>144.6268708087556</v>
       </c>
       <c r="I19" t="n">
-        <v>106.6413558026584</v>
+        <v>106.6413558026583</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>106.5443396587282</v>
+        <v>106.5443396587281</v>
       </c>
       <c r="S19" t="n">
-        <v>112.7194138349703</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.1496135889819</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>43.97583416582333</v>
       </c>
       <c r="V19" t="n">
-        <v>247.6370083386831</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>214.0840183669498</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>175.3313451967924</v>
+        <v>175.3313451967923</v>
       </c>
       <c r="C22" t="n">
-        <v>81.78156341259637</v>
+        <v>162.7461861134828</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>140.9204130377864</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>162.0169667265968</v>
+        <v>162.0169667265967</v>
       </c>
       <c r="H22" t="n">
-        <v>144.6268708087557</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>106.6413558026584</v>
+        <v>106.6413558026583</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>106.5443396587282</v>
+        <v>106.5443396587281</v>
       </c>
       <c r="S22" t="n">
-        <v>193.8390089722218</v>
+        <v>193.8390089722217</v>
       </c>
       <c r="T22" t="n">
-        <v>217.1496135889819</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>106.1569214114562</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>247.637008338683</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>282.022363351446</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>214.0840183669499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>175.3313451967923</v>
       </c>
       <c r="C25" t="n">
-        <v>162.746186113483</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>144.1148380330675</v>
+        <v>144.1148380330674</v>
       </c>
       <c r="E25" t="n">
-        <v>141.9333276614243</v>
+        <v>141.9333276614242</v>
       </c>
       <c r="F25" t="n">
-        <v>140.9204130377864</v>
+        <v>140.9204130377863</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>162.0169667265967</v>
       </c>
       <c r="H25" t="n">
-        <v>144.6268708087557</v>
+        <v>144.6268708087556</v>
       </c>
       <c r="I25" t="n">
-        <v>106.6413558026584</v>
+        <v>106.6413558026583</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>193.8390089722218</v>
+        <v>193.8390089722217</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>281.7380283178886</v>
       </c>
       <c r="V25" t="n">
-        <v>247.6370083386831</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>39.26746640009561</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>221.2090204038923</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>51.77334101487402</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>159.6773632369709</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>147.0922041536614</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4608560732468</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>128.972888848935</v>
       </c>
       <c r="I28" t="n">
-        <v>90.98737384283683</v>
+        <v>90.98737384283774</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.89035769890666</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>121.7482193332642</v>
       </c>
       <c r="T28" t="n">
-        <v>201.4956316291603</v>
+        <v>201.4956316291612</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>266.0840463580681</v>
       </c>
       <c r="V28" t="n">
-        <v>231.9830263788616</v>
+        <v>231.9830263788625</v>
       </c>
       <c r="W28" t="n">
-        <v>49.17604911682781</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>198.4300364071284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>159.6773632369709</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>147.0922041536614</v>
+        <v>147.0922041536623</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4608560732459</v>
+        <v>128.4608560732468</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.2793457016036</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>125.2664310779657</v>
       </c>
       <c r="G31" t="n">
-        <v>146.3629847667753</v>
+        <v>19.19340386536528</v>
       </c>
       <c r="H31" t="n">
-        <v>128.9728888489341</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>90.98737384283683</v>
+        <v>90.98737384283774</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>178.1850270124003</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>266.0840463580681</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>266.3683813916255</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>189.9933445295295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1347178.869410431</v>
+        <v>1347178.869410432</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1362405.570297226</v>
+        <v>1362405.570297225</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1362405.570297226</v>
+        <v>1362405.570297225</v>
       </c>
     </row>
     <row r="12">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321418</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>39200.56589852763</v>
+        <v>39200.5658985277</v>
       </c>
       <c r="F2" t="n">
-        <v>39200.56589852765</v>
+        <v>39200.5658985277</v>
       </c>
       <c r="G2" t="n">
-        <v>39200.5658985277</v>
+        <v>39200.56589852768</v>
       </c>
       <c r="H2" t="n">
         <v>39200.5658985277</v>
@@ -26335,25 +26335,25 @@
         <v>39200.5658985277</v>
       </c>
       <c r="J2" t="n">
-        <v>39648.41004225694</v>
+        <v>39648.41004225689</v>
       </c>
       <c r="K2" t="n">
-        <v>39648.41004225697</v>
+        <v>39648.41004225689</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321414</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321413</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>15106.6875843894</v>
       </c>
       <c r="D3" t="n">
-        <v>417183.6221536879</v>
+        <v>417183.622153688</v>
       </c>
       <c r="E3" t="n">
-        <v>513176.7369392838</v>
+        <v>513176.736939284</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.760636329592671e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>84999.39228722299</v>
+        <v>84999.39228722228</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475326</v>
+        <v>3323.773824475414</v>
       </c>
       <c r="L3" t="n">
-        <v>140014.7478798312</v>
+        <v>140014.7478798319</v>
       </c>
       <c r="M3" t="n">
-        <v>130730.9694847048</v>
+        <v>130730.9694847047</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16123.69355597309</v>
+        <v>16123.69355597241</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287707.9213319438</v>
+        <v>287707.9213319437</v>
       </c>
       <c r="C4" t="n">
         <v>283356.3453933829</v>
@@ -26424,40 +26424,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>19687.06685024067</v>
+        <v>19687.06685024084</v>
       </c>
       <c r="F4" t="n">
-        <v>19687.06685024067</v>
+        <v>19687.06685024084</v>
       </c>
       <c r="G4" t="n">
-        <v>19687.06685024074</v>
+        <v>19687.06685024084</v>
       </c>
       <c r="H4" t="n">
-        <v>19687.06685024066</v>
+        <v>19687.06685024073</v>
       </c>
       <c r="I4" t="n">
-        <v>19687.0668502407</v>
+        <v>19687.06685024073</v>
       </c>
       <c r="J4" t="n">
-        <v>24838.00703946684</v>
+        <v>24838.00703946661</v>
       </c>
       <c r="K4" t="n">
-        <v>24838.00703946687</v>
+        <v>24838.00703946653</v>
       </c>
       <c r="L4" t="n">
+        <v>40982.60521502629</v>
+      </c>
+      <c r="M4" t="n">
+        <v>40982.60521502627</v>
+      </c>
+      <c r="N4" t="n">
         <v>40982.60521502628</v>
       </c>
-      <c r="M4" t="n">
-        <v>40982.60521502624</v>
-      </c>
-      <c r="N4" t="n">
-        <v>40982.60521502627</v>
-      </c>
       <c r="O4" t="n">
+        <v>40982.60521502628</v>
+      </c>
+      <c r="P4" t="n">
         <v>40982.60521502625</v>
-      </c>
-      <c r="P4" t="n">
-        <v>40982.60521502623</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91082.15287887877</v>
+        <v>91082.15287887878</v>
       </c>
       <c r="F5" t="n">
-        <v>91082.15287887877</v>
+        <v>91082.15287887878</v>
       </c>
       <c r="G5" t="n">
         <v>91082.15287887877</v>
@@ -26488,19 +26488,19 @@
         <v>91082.15287887877</v>
       </c>
       <c r="I5" t="n">
-        <v>91082.15287887875</v>
+        <v>91082.15287887877</v>
       </c>
       <c r="J5" t="n">
-        <v>92398.167488259</v>
+        <v>92398.16748825891</v>
       </c>
       <c r="K5" t="n">
-        <v>92398.167488259</v>
+        <v>92398.16748825894</v>
       </c>
       <c r="L5" t="n">
         <v>96522.95369836671</v>
       </c>
       <c r="M5" t="n">
-        <v>96522.95369836672</v>
+        <v>96522.95369836671</v>
       </c>
       <c r="N5" t="n">
         <v>96522.95369836671</v>
@@ -26509,7 +26509,7 @@
         <v>96522.95369836671</v>
       </c>
       <c r="P5" t="n">
-        <v>96522.95369836672</v>
+        <v>96522.95369836671</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-407184.6951205124</v>
+        <v>-407184.6951205123</v>
       </c>
       <c r="C6" t="n">
         <v>-308592.3240013382</v>
       </c>
       <c r="D6" t="n">
-        <v>-615765.5699751058</v>
+        <v>-615765.5699751059</v>
       </c>
       <c r="E6" t="n">
-        <v>-584745.3907698756</v>
+        <v>-584837.9668996102</v>
       </c>
       <c r="F6" t="n">
-        <v>-71568.65383059179</v>
+        <v>-71661.22996032627</v>
       </c>
       <c r="G6" t="n">
-        <v>-71568.65383059185</v>
+        <v>-71661.22996032627</v>
       </c>
       <c r="H6" t="n">
-        <v>-71568.65383059173</v>
+        <v>-71661.22996032612</v>
       </c>
       <c r="I6" t="n">
-        <v>-71568.65383059175</v>
+        <v>-71661.22996032612</v>
       </c>
       <c r="J6" t="n">
-        <v>-162587.1567726919</v>
+        <v>-162657.3406952388</v>
       </c>
       <c r="K6" t="n">
-        <v>-80911.53830994423</v>
+        <v>-80981.72223249185</v>
       </c>
       <c r="L6" t="n">
-        <v>-236468.2183000101</v>
+        <v>-236468.2183000107</v>
       </c>
       <c r="M6" t="n">
-        <v>-227184.4399048836</v>
+        <v>-227184.4399048835</v>
       </c>
       <c r="N6" t="n">
-        <v>-96453.47042017878</v>
+        <v>-96453.47042017884</v>
       </c>
       <c r="O6" t="n">
-        <v>-112577.1639761519</v>
+        <v>-112577.1639761512</v>
       </c>
       <c r="P6" t="n">
-        <v>-96453.47042017881</v>
+        <v>-96453.47042017883</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="F2" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="G2" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="H2" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="I2" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="J2" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="K2" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="L2" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="M2" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="N2" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="O2" t="n">
         <v>69.21891187065489</v>
@@ -26741,13 +26741,13 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>817.0548768158274</v>
+        <v>817.0548768158275</v>
       </c>
       <c r="F3" t="n">
-        <v>817.0548768158274</v>
+        <v>817.0548768158275</v>
       </c>
       <c r="G3" t="n">
         <v>817.0548768158274</v>
@@ -26774,7 +26774,7 @@
         <v>817.0548768158274</v>
       </c>
       <c r="O3" t="n">
-        <v>817.0548768158275</v>
+        <v>817.0548768158274</v>
       </c>
       <c r="P3" t="n">
         <v>817.0548768158274</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.950795411990839e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.15461694496635</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.06429492568858</v>
+        <v>49.06429492568942</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.15461694496637</v>
+        <v>20.15461694496551</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>12.00787803233601</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979613</v>
+        <v>342.7224034979614</v>
       </c>
       <c r="E3" t="n">
-        <v>439.3112125987407</v>
+        <v>439.3112125987408</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516668</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>12.914479750689</v>
+        <v>12.91447975068934</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522001</v>
+        <v>398.1307590521999</v>
       </c>
       <c r="M4" t="n">
-        <v>524.5941858264906</v>
+        <v>524.5941858264904</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.950795411990839e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.15461694496635</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>148.6195296702111</v>
+        <v>102.030857819341</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>142.1267795727386</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205952</v>
       </c>
       <c r="F2" t="n">
         <v>143.6340117900448</v>
@@ -27400,7 +27400,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852173</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>105.0006770863233</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>198.7726982302688</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>156.0272250098654</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
         <v>17.44799951871617</v>
@@ -27582,7 +27582,7 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
-        <v>106.017514388113</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
         <v>223.2933741908973</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C5" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
         <v>205.8118405263978</v>
@@ -27673,10 +27673,10 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>247.5768771554106</v>
+        <v>106.5515954701312</v>
       </c>
       <c r="W5" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>116.8043864430329</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>54.64311939017752</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
         <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
         <v>199.8611009721718</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>4.700786234059393</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>138.217680340412</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
         <v>161.6656840978772</v>
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>309.8439548256353</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>150.06675797498</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>81.1339886431778</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>35.97911260116103</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="C11" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="D11" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="E11" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="F11" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="G11" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="H11" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="I11" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="T11" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="U11" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="V11" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="W11" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="X11" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="C13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="D13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="E13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="F13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="G13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="H13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="I13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="J13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="K13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="L13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="M13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="N13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="O13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="P13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="R13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="S13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="T13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="U13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="V13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="W13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="X13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.500634985144798</v>
+        <v>4.500634985144972</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="C14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="D14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="E14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="F14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="G14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="H14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="I14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="T14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="U14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="V14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="W14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="X14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="C16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="D16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="E16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="F16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="G16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="H16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="I16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="J16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="K16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="L16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="M16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="N16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="O16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="P16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="R16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="S16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="T16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="U16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="V16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="W16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="X16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.500634985144799</v>
+        <v>4.500634985144972</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="C17" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="D17" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="E17" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="F17" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="G17" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="H17" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="I17" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="T17" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="U17" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="V17" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="W17" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="X17" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="C19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="D19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="E19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="F19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="G19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="H19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="I19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="J19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="K19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="L19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="M19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="N19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="O19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="P19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="R19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="S19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="T19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="U19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="V19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="W19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="X19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="C20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="D20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="E20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="F20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985142312</v>
       </c>
       <c r="G20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="H20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="I20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="T20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="U20" t="n">
-        <v>4.50063498514308</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="V20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="W20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="X20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="C22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="D22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="E22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="F22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="G22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="H22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="I22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="J22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="K22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="L22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="M22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="N22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="O22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="P22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="R22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="S22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="T22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="U22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="V22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="W22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="X22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="C23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="D23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="E23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="F23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985142312</v>
       </c>
       <c r="G23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="H23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="I23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="T23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="U23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="V23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="W23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="X23" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.500634985144075</v>
+        <v>4.500634985144972</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="C25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="D25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="E25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="F25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="G25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="H25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="I25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="J25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="K25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="L25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="M25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="N25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="O25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="P25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="R25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="S25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="T25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="U25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="V25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="W25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="X25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.500634985144859</v>
+        <v>4.500634985144972</v>
       </c>
     </row>
     <row r="26">
@@ -29272,22 +29272,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.045673942272003</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>20.15461694496641</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>20.15461694496641</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29332,13 +29332,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>20.15461694496641</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>7.045673942276039</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="C28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="D28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="E28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="F28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="G28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="H28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="I28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="J28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="K28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="L28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="M28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="N28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="O28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="P28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="R28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="S28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="T28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="U28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="V28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="W28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="X28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="Y28" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
     </row>
     <row r="29">
@@ -29509,13 +29509,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>20.15461694496641</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>20.15461694496641</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>7.045673942272629</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,10 +29560,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>7.045673942274277</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="C31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="D31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="E31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="F31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="G31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="H31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="I31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="J31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="K31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="L31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="M31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="N31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="O31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="P31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="R31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="S31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="T31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="U31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="V31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="W31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="X31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
       <c r="Y31" t="n">
-        <v>20.15461694496641</v>
+        <v>20.15461694496553</v>
       </c>
     </row>
     <row r="32">
@@ -29752,10 +29752,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>67.50952477717203</v>
       </c>
       <c r="E32" t="n">
-        <v>67.50952477717192</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="C34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="D34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="E34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="F34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="G34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="H34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="I34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="J34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="K34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="L34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="M34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="N34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="O34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="P34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="R34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="S34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="T34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="U34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="V34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="W34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="X34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.21891187065494</v>
+        <v>69.21891187065495</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>67.50952477717112</v>
+        <v>67.50952477717203</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="C37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="D37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="E37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="F37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="G37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="H37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="I37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="J37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="K37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="L37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="M37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="N37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="O37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="P37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="R37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="S37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="T37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="U37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="V37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="W37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="X37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.21891187065492</v>
+        <v>69.21891187065489</v>
       </c>
     </row>
     <row r="38">
@@ -30238,10 +30238,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>67.50952477717198</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="C40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="D40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="E40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="F40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="G40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="H40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="I40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="J40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="K40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="L40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="M40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="N40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="O40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="P40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="R40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="S40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="T40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="U40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="V40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="W40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="X40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.21891187065488</v>
+        <v>69.21891187065491</v>
       </c>
     </row>
     <row r="41">
@@ -30508,10 +30508,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.50952477717172</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>67.50952477717229</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>67.50952477717112</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>67.50952477717172</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31039,19 +31039,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367561</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887681</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I2" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760345</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324494</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L2" t="n">
         <v>14.5997362345548</v>
@@ -31069,10 +31069,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544806</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679518</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S2" t="n">
         <v>2.10821088633251</v>
@@ -31081,7 +31081,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294047</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31127,10 +31127,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246499</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750213</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L3" t="n">
         <v>10.74790103688213</v>
@@ -31139,7 +31139,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418793</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O3" t="n">
         <v>11.77742425104019</v>
@@ -31148,19 +31148,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210533</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R3" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523842</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T3" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564529</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,10 +31197,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994796</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259012</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I4" t="n">
         <v>1.248004425047526</v>
@@ -31209,37 +31209,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K4" t="n">
-        <v>4.82149230716668</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471355</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988659</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847949</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150828</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131886</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705188</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R4" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750019</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T4" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815346</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31753,31 +31753,31 @@
         <v>3.284642720867645</v>
       </c>
       <c r="H11" t="n">
-        <v>33.63884726508578</v>
+        <v>33.63884726508579</v>
       </c>
       <c r="I11" t="n">
         <v>126.63118849625</v>
       </c>
       <c r="J11" t="n">
-        <v>278.7799451302405</v>
+        <v>278.7799451302406</v>
       </c>
       <c r="K11" t="n">
         <v>417.8188715045681</v>
       </c>
       <c r="L11" t="n">
-        <v>518.3412561733213</v>
+        <v>518.3412561733214</v>
       </c>
       <c r="M11" t="n">
         <v>576.7545211605513</v>
       </c>
       <c r="N11" t="n">
-        <v>586.0870122912165</v>
+        <v>586.0870122912166</v>
       </c>
       <c r="O11" t="n">
         <v>553.4253462355889</v>
       </c>
       <c r="P11" t="n">
-        <v>472.3357290641688</v>
+        <v>472.3357290641689</v>
       </c>
       <c r="Q11" t="n">
         <v>354.7044616230962</v>
@@ -31789,7 +31789,7 @@
         <v>74.84879600177155</v>
       </c>
       <c r="T11" t="n">
-        <v>14.37852351059812</v>
+        <v>14.37852351059813</v>
       </c>
       <c r="U11" t="n">
         <v>0.2627714176694116</v>
@@ -31832,10 +31832,10 @@
         <v>1.757438791641591</v>
       </c>
       <c r="H12" t="n">
-        <v>16.97315885611747</v>
+        <v>16.97315885611748</v>
       </c>
       <c r="I12" t="n">
-        <v>60.50830927362496</v>
+        <v>60.50830927362497</v>
       </c>
       <c r="J12" t="n">
         <v>166.0394254857523</v>
@@ -31844,10 +31844,10 @@
         <v>283.7878245257389</v>
       </c>
       <c r="L12" t="n">
-        <v>381.5877516676183</v>
+        <v>381.5877516676184</v>
       </c>
       <c r="M12" t="n">
-        <v>445.2949078646258</v>
+        <v>445.2949078646259</v>
       </c>
       <c r="N12" t="n">
         <v>457.0805390594505</v>
@@ -31868,10 +31868,10 @@
         <v>32.64365474825497</v>
       </c>
       <c r="T12" t="n">
-        <v>7.083711620695708</v>
+        <v>7.083711620695709</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1156209731343152</v>
+        <v>0.1156209731343153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>13.09966671353901</v>
       </c>
       <c r="I13" t="n">
-        <v>44.30848413945504</v>
+        <v>44.30848413945505</v>
       </c>
       <c r="J13" t="n">
         <v>104.1677996228965</v>
@@ -31923,13 +31923,13 @@
         <v>171.1796938640372</v>
       </c>
       <c r="L13" t="n">
-        <v>219.051073040099</v>
+        <v>219.0510730400991</v>
       </c>
       <c r="M13" t="n">
-        <v>230.9586432940214</v>
+        <v>230.9586432940215</v>
       </c>
       <c r="N13" t="n">
-        <v>225.4669629744398</v>
+        <v>225.4669629744399</v>
       </c>
       <c r="O13" t="n">
         <v>208.2552331923359</v>
@@ -31947,7 +31947,7 @@
         <v>25.67695407960558</v>
       </c>
       <c r="T13" t="n">
-        <v>6.295340854154733</v>
+        <v>6.295340854154734</v>
       </c>
       <c r="U13" t="n">
         <v>0.08036605345729458</v>
@@ -31990,31 +31990,31 @@
         <v>3.284642720867645</v>
       </c>
       <c r="H14" t="n">
-        <v>33.63884726508578</v>
+        <v>33.63884726508579</v>
       </c>
       <c r="I14" t="n">
         <v>126.63118849625</v>
       </c>
       <c r="J14" t="n">
-        <v>278.7799451302405</v>
+        <v>278.7799451302406</v>
       </c>
       <c r="K14" t="n">
         <v>417.8188715045681</v>
       </c>
       <c r="L14" t="n">
-        <v>518.3412561733213</v>
+        <v>518.3412561733214</v>
       </c>
       <c r="M14" t="n">
         <v>576.7545211605513</v>
       </c>
       <c r="N14" t="n">
-        <v>586.0870122912165</v>
+        <v>586.0870122912166</v>
       </c>
       <c r="O14" t="n">
         <v>553.4253462355889</v>
       </c>
       <c r="P14" t="n">
-        <v>472.3357290641688</v>
+        <v>472.3357290641689</v>
       </c>
       <c r="Q14" t="n">
         <v>354.7044616230962</v>
@@ -32026,7 +32026,7 @@
         <v>74.84879600177155</v>
       </c>
       <c r="T14" t="n">
-        <v>14.37852351059812</v>
+        <v>14.37852351059813</v>
       </c>
       <c r="U14" t="n">
         <v>0.2627714176694116</v>
@@ -32069,10 +32069,10 @@
         <v>1.757438791641591</v>
       </c>
       <c r="H15" t="n">
-        <v>16.97315885611747</v>
+        <v>16.97315885611748</v>
       </c>
       <c r="I15" t="n">
-        <v>60.50830927362496</v>
+        <v>60.50830927362497</v>
       </c>
       <c r="J15" t="n">
         <v>166.0394254857523</v>
@@ -32081,10 +32081,10 @@
         <v>283.7878245257389</v>
       </c>
       <c r="L15" t="n">
-        <v>381.5877516676183</v>
+        <v>381.5877516676184</v>
       </c>
       <c r="M15" t="n">
-        <v>445.2949078646258</v>
+        <v>445.2949078646259</v>
       </c>
       <c r="N15" t="n">
         <v>457.0805390594505</v>
@@ -32105,10 +32105,10 @@
         <v>32.64365474825497</v>
       </c>
       <c r="T15" t="n">
-        <v>7.083711620695708</v>
+        <v>7.083711620695709</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1156209731343152</v>
+        <v>0.1156209731343153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,7 +32151,7 @@
         <v>13.09966671353901</v>
       </c>
       <c r="I16" t="n">
-        <v>44.30848413945504</v>
+        <v>44.30848413945505</v>
       </c>
       <c r="J16" t="n">
         <v>104.1677996228965</v>
@@ -32160,13 +32160,13 @@
         <v>171.1796938640372</v>
       </c>
       <c r="L16" t="n">
-        <v>219.051073040099</v>
+        <v>219.0510730400991</v>
       </c>
       <c r="M16" t="n">
-        <v>230.9586432940214</v>
+        <v>230.9586432940215</v>
       </c>
       <c r="N16" t="n">
-        <v>225.4669629744398</v>
+        <v>225.4669629744399</v>
       </c>
       <c r="O16" t="n">
         <v>208.2552331923359</v>
@@ -32184,7 +32184,7 @@
         <v>25.67695407960558</v>
       </c>
       <c r="T16" t="n">
-        <v>6.295340854154733</v>
+        <v>6.295340854154734</v>
       </c>
       <c r="U16" t="n">
         <v>0.08036605345729458</v>
@@ -34123,31 +34123,31 @@
         <v>3.284642720867645</v>
       </c>
       <c r="H41" t="n">
-        <v>33.63884726508579</v>
+        <v>33.63884726508578</v>
       </c>
       <c r="I41" t="n">
         <v>126.63118849625</v>
       </c>
       <c r="J41" t="n">
-        <v>278.7799451302406</v>
+        <v>278.7799451302405</v>
       </c>
       <c r="K41" t="n">
         <v>417.8188715045681</v>
       </c>
       <c r="L41" t="n">
-        <v>518.3412561733214</v>
+        <v>518.3412561733213</v>
       </c>
       <c r="M41" t="n">
         <v>576.7545211605513</v>
       </c>
       <c r="N41" t="n">
-        <v>586.0870122912166</v>
+        <v>586.0870122912165</v>
       </c>
       <c r="O41" t="n">
         <v>553.4253462355889</v>
       </c>
       <c r="P41" t="n">
-        <v>472.3357290641689</v>
+        <v>472.3357290641688</v>
       </c>
       <c r="Q41" t="n">
         <v>354.7044616230962</v>
@@ -34159,7 +34159,7 @@
         <v>74.84879600177155</v>
       </c>
       <c r="T41" t="n">
-        <v>14.37852351059813</v>
+        <v>14.37852351059812</v>
       </c>
       <c r="U41" t="n">
         <v>0.2627714176694116</v>
@@ -34202,10 +34202,10 @@
         <v>1.757438791641591</v>
       </c>
       <c r="H42" t="n">
-        <v>16.97315885611748</v>
+        <v>16.97315885611747</v>
       </c>
       <c r="I42" t="n">
-        <v>60.50830927362497</v>
+        <v>60.50830927362496</v>
       </c>
       <c r="J42" t="n">
         <v>166.0394254857523</v>
@@ -34214,10 +34214,10 @@
         <v>283.7878245257389</v>
       </c>
       <c r="L42" t="n">
-        <v>381.5877516676184</v>
+        <v>381.5877516676183</v>
       </c>
       <c r="M42" t="n">
-        <v>445.2949078646259</v>
+        <v>445.2949078646258</v>
       </c>
       <c r="N42" t="n">
         <v>457.0805390594505</v>
@@ -34238,10 +34238,10 @@
         <v>32.64365474825497</v>
       </c>
       <c r="T42" t="n">
-        <v>7.083711620695709</v>
+        <v>7.083711620695708</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1156209731343153</v>
+        <v>0.1156209731343152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,7 +34284,7 @@
         <v>13.09966671353901</v>
       </c>
       <c r="I43" t="n">
-        <v>44.30848413945505</v>
+        <v>44.30848413945504</v>
       </c>
       <c r="J43" t="n">
         <v>104.1677996228965</v>
@@ -34293,13 +34293,13 @@
         <v>171.1796938640372</v>
       </c>
       <c r="L43" t="n">
-        <v>219.0510730400991</v>
+        <v>219.051073040099</v>
       </c>
       <c r="M43" t="n">
-        <v>230.9586432940215</v>
+        <v>230.9586432940214</v>
       </c>
       <c r="N43" t="n">
-        <v>225.4669629744399</v>
+        <v>225.4669629744398</v>
       </c>
       <c r="O43" t="n">
         <v>208.2552331923359</v>
@@ -34317,7 +34317,7 @@
         <v>25.67695407960558</v>
       </c>
       <c r="T43" t="n">
-        <v>6.295340854154734</v>
+        <v>6.295340854154733</v>
       </c>
       <c r="U43" t="n">
         <v>0.08036605345729458</v>
@@ -34781,19 +34781,19 @@
         <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M3" t="n">
+        <v>134.465535017424</v>
+      </c>
+      <c r="N3" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="N3" t="n">
-        <v>183.5586190747613</v>
       </c>
       <c r="O3" t="n">
         <v>263.0434990833253</v>
       </c>
       <c r="P3" t="n">
-        <v>193.9407825031299</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34872,7 +34872,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025374</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>248.6418854471727</v>
@@ -35024,13 +35024,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N6" t="n">
-        <v>276.1565137023555</v>
+        <v>100.6082676511398</v>
       </c>
       <c r="O6" t="n">
-        <v>147.3552403359688</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>266.830655775628</v>
+        <v>266.8306557756281</v>
       </c>
       <c r="K11" t="n">
         <v>521.8744330307522</v>
       </c>
       <c r="L11" t="n">
-        <v>700.2360557537845</v>
+        <v>700.2360557537846</v>
       </c>
       <c r="M11" t="n">
         <v>795.9218214261111</v>
       </c>
       <c r="N11" t="n">
-        <v>794.0208731066098</v>
+        <v>794.0208731066099</v>
       </c>
       <c r="O11" t="n">
         <v>704.1273160766475</v>
       </c>
       <c r="P11" t="n">
-        <v>562.9014414803819</v>
+        <v>562.901441480382</v>
       </c>
       <c r="Q11" t="n">
         <v>344.7137624085514</v>
       </c>
       <c r="R11" t="n">
-        <v>56.45982037355273</v>
+        <v>56.45982037355276</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>39.20179881908558</v>
       </c>
       <c r="K12" t="n">
-        <v>368.8808514887901</v>
+        <v>145.9463855513799</v>
       </c>
       <c r="L12" t="n">
-        <v>243.0333718877441</v>
+        <v>243.0333718877442</v>
       </c>
       <c r="M12" t="n">
-        <v>303.1608739426075</v>
+        <v>759.0780534531305</v>
       </c>
       <c r="N12" t="n">
-        <v>325.7388269761171</v>
+        <v>805.0812013196708</v>
       </c>
       <c r="O12" t="n">
-        <v>669.4054701400981</v>
+        <v>275.5431508633687</v>
       </c>
       <c r="P12" t="n">
-        <v>520.0820897803947</v>
+        <v>201.6193211404575</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.35374605405246</v>
+        <v>84.35374605405249</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>15.30925449136855</v>
+        <v>15.30925449136874</v>
       </c>
       <c r="K13" t="n">
-        <v>153.4108370232992</v>
+        <v>153.4108370232994</v>
       </c>
       <c r="L13" t="n">
-        <v>251.14173328556</v>
+        <v>251.1417332855602</v>
       </c>
       <c r="M13" t="n">
-        <v>275.0431552410068</v>
+        <v>275.0431552410071</v>
       </c>
       <c r="N13" t="n">
-        <v>274.0997703388132</v>
+        <v>274.0997703388134</v>
       </c>
       <c r="O13" t="n">
-        <v>237.3409960915203</v>
+        <v>237.3409960915205</v>
       </c>
       <c r="P13" t="n">
-        <v>179.9775234493459</v>
+        <v>179.9775234493461</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.71387813264035</v>
+        <v>41.71387813264053</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>266.830655775628</v>
+        <v>266.8306557756281</v>
       </c>
       <c r="K14" t="n">
         <v>521.8744330307522</v>
       </c>
       <c r="L14" t="n">
-        <v>700.2360557537845</v>
+        <v>700.2360557537846</v>
       </c>
       <c r="M14" t="n">
         <v>795.9218214261111</v>
       </c>
       <c r="N14" t="n">
-        <v>794.0208731066098</v>
+        <v>794.0208731066099</v>
       </c>
       <c r="O14" t="n">
         <v>704.1273160766475</v>
       </c>
       <c r="P14" t="n">
-        <v>562.9014414803819</v>
+        <v>562.901441480382</v>
       </c>
       <c r="Q14" t="n">
         <v>344.7137624085514</v>
       </c>
       <c r="R14" t="n">
-        <v>56.45982037355273</v>
+        <v>56.45982037355276</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>165.2928341594944</v>
+        <v>39.20179881908558</v>
       </c>
       <c r="K15" t="n">
-        <v>410.4116225639585</v>
+        <v>145.9463855513799</v>
       </c>
       <c r="L15" t="n">
-        <v>259.1965970130474</v>
+        <v>243.0333718877442</v>
       </c>
       <c r="M15" t="n">
-        <v>303.1608739426075</v>
+        <v>759.0780534531305</v>
       </c>
       <c r="N15" t="n">
-        <v>325.7388269761171</v>
+        <v>805.0812013196708</v>
       </c>
       <c r="O15" t="n">
-        <v>275.5431508633686</v>
+        <v>275.5431508633687</v>
       </c>
       <c r="P15" t="n">
-        <v>520.0820897803947</v>
+        <v>201.6193211404575</v>
       </c>
       <c r="Q15" t="n">
-        <v>294.4310337899016</v>
+        <v>84.35374605405249</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>15.30925449136855</v>
+        <v>15.30925449136873</v>
       </c>
       <c r="K16" t="n">
-        <v>153.4108370232992</v>
+        <v>153.4108370232993</v>
       </c>
       <c r="L16" t="n">
-        <v>251.14173328556</v>
+        <v>251.1417332855602</v>
       </c>
       <c r="M16" t="n">
-        <v>275.0431552410068</v>
+        <v>275.043155241007</v>
       </c>
       <c r="N16" t="n">
-        <v>274.0997703388132</v>
+        <v>274.0997703388134</v>
       </c>
       <c r="O16" t="n">
-        <v>237.3409960915203</v>
+        <v>237.3409960915205</v>
       </c>
       <c r="P16" t="n">
-        <v>179.9775234493459</v>
+        <v>179.9775234493461</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.71387813264035</v>
+        <v>41.71387813264053</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>165.2928341594944</v>
+        <v>39.20179881908558</v>
       </c>
       <c r="K18" t="n">
-        <v>410.4116225639585</v>
+        <v>368.8808514887901</v>
       </c>
       <c r="L18" t="n">
-        <v>250.2390647863994</v>
+        <v>243.0333718877441</v>
       </c>
       <c r="M18" t="n">
         <v>303.1608739426075</v>
@@ -35975,16 +35975,16 @@
         <v>325.7388269761171</v>
       </c>
       <c r="O18" t="n">
-        <v>275.5431508633686</v>
+        <v>669.4054701400981</v>
       </c>
       <c r="P18" t="n">
         <v>520.0820897803947</v>
       </c>
       <c r="Q18" t="n">
-        <v>294.4310337899016</v>
+        <v>84.35374605405246</v>
       </c>
       <c r="R18" t="n">
-        <v>8.95753222664797</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>15.30925449136861</v>
+        <v>15.30925449136872</v>
       </c>
       <c r="K19" t="n">
-        <v>153.4108370232992</v>
+        <v>153.4108370232993</v>
       </c>
       <c r="L19" t="n">
-        <v>251.14173328556</v>
+        <v>251.1417332855602</v>
       </c>
       <c r="M19" t="n">
-        <v>275.0431552410069</v>
+        <v>275.043155241007</v>
       </c>
       <c r="N19" t="n">
-        <v>274.0997703388133</v>
+        <v>274.0997703388134</v>
       </c>
       <c r="O19" t="n">
-        <v>237.3409960915204</v>
+        <v>237.3409960915205</v>
       </c>
       <c r="P19" t="n">
-        <v>179.9775234493459</v>
+        <v>179.9775234493461</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.7138781326404</v>
+        <v>41.71387813264052</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>266.830655775628</v>
+        <v>266.8306557756289</v>
       </c>
       <c r="K20" t="n">
         <v>521.8744330307522</v>
@@ -36206,13 +36206,13 @@
         <v>243.0333718877441</v>
       </c>
       <c r="M21" t="n">
-        <v>768.8659376926074</v>
+        <v>759.0780534531306</v>
       </c>
       <c r="N21" t="n">
-        <v>392.4734655768166</v>
+        <v>805.0812013196708</v>
       </c>
       <c r="O21" t="n">
-        <v>669.4054701400981</v>
+        <v>275.5431508633686</v>
       </c>
       <c r="P21" t="n">
         <v>201.6193211404574</v>
@@ -36221,7 +36221,7 @@
         <v>84.35374605405246</v>
       </c>
       <c r="R21" t="n">
-        <v>8.95753222664797</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>15.30925449136861</v>
+        <v>15.30925449136872</v>
       </c>
       <c r="K22" t="n">
-        <v>153.4108370232992</v>
+        <v>153.4108370232993</v>
       </c>
       <c r="L22" t="n">
-        <v>251.14173328556</v>
+        <v>251.1417332855601</v>
       </c>
       <c r="M22" t="n">
-        <v>275.0431552410069</v>
+        <v>275.043155241007</v>
       </c>
       <c r="N22" t="n">
-        <v>274.0997703388133</v>
+        <v>274.0997703388134</v>
       </c>
       <c r="O22" t="n">
-        <v>237.3409960915204</v>
+        <v>237.3409960915205</v>
       </c>
       <c r="P22" t="n">
-        <v>179.9775234493459</v>
+        <v>179.9775234493461</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.7138781326404</v>
+        <v>41.71387813264052</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>145.9463855513799</v>
       </c>
       <c r="L24" t="n">
-        <v>243.0333718877441</v>
+        <v>613.8737171912032</v>
       </c>
       <c r="M24" t="n">
         <v>768.8659376926074</v>
       </c>
       <c r="N24" t="n">
-        <v>401.4309978034647</v>
+        <v>325.7388269761171</v>
       </c>
       <c r="O24" t="n">
-        <v>669.4054701400981</v>
+        <v>275.5431508633686</v>
       </c>
       <c r="P24" t="n">
-        <v>201.6193211404574</v>
+        <v>300.3334659410751</v>
       </c>
       <c r="Q24" t="n">
         <v>84.35374605405246</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>15.30925449136861</v>
+        <v>15.30925449136872</v>
       </c>
       <c r="K25" t="n">
-        <v>153.4108370232992</v>
+        <v>153.4108370232993</v>
       </c>
       <c r="L25" t="n">
-        <v>251.14173328556</v>
+        <v>251.1417332855601</v>
       </c>
       <c r="M25" t="n">
-        <v>275.0431552410069</v>
+        <v>275.043155241007</v>
       </c>
       <c r="N25" t="n">
-        <v>274.0997703388133</v>
+        <v>274.0997703388134</v>
       </c>
       <c r="O25" t="n">
-        <v>237.3409960915204</v>
+        <v>237.3409960915205</v>
       </c>
       <c r="P25" t="n">
-        <v>179.9775234493459</v>
+        <v>179.9775234493461</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.7138781326404</v>
+        <v>41.71387813264052</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>145.9463855513799</v>
       </c>
       <c r="L27" t="n">
-        <v>243.0333718877441</v>
+        <v>613.8737171912032</v>
       </c>
       <c r="M27" t="n">
-        <v>759.0780534531306</v>
+        <v>768.8659376926074</v>
       </c>
       <c r="N27" t="n">
-        <v>805.0812013196708</v>
+        <v>325.7388269761171</v>
       </c>
       <c r="O27" t="n">
         <v>275.5431508633686</v>
       </c>
       <c r="P27" t="n">
-        <v>201.6193211404574</v>
+        <v>300.3334659410751</v>
       </c>
       <c r="Q27" t="n">
         <v>84.35374605405246</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.96323645119017</v>
+        <v>30.96323645118927</v>
       </c>
       <c r="K28" t="n">
-        <v>169.0648189831208</v>
+        <v>169.0648189831199</v>
       </c>
       <c r="L28" t="n">
-        <v>266.7957152453816</v>
+        <v>266.7957152453807</v>
       </c>
       <c r="M28" t="n">
-        <v>290.6971372008284</v>
+        <v>290.6971372008276</v>
       </c>
       <c r="N28" t="n">
-        <v>289.7537522986348</v>
+        <v>289.753752298634</v>
       </c>
       <c r="O28" t="n">
-        <v>252.9949780513419</v>
+        <v>252.994978051341</v>
       </c>
       <c r="P28" t="n">
-        <v>195.6315054091675</v>
+        <v>195.6315054091666</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.36786009246196</v>
+        <v>57.36786009246107</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>165.2928341594944</v>
+        <v>39.20179881908558</v>
       </c>
       <c r="K30" t="n">
         <v>145.9463855513799</v>
       </c>
       <c r="L30" t="n">
-        <v>523.661834025626</v>
+        <v>465.9678378251543</v>
       </c>
       <c r="M30" t="n">
         <v>303.1608739426075</v>
@@ -36923,13 +36923,13 @@
         <v>325.7388269761171</v>
       </c>
       <c r="O30" t="n">
-        <v>275.5431508633686</v>
+        <v>669.4054701400981</v>
       </c>
       <c r="P30" t="n">
         <v>520.0820897803947</v>
       </c>
       <c r="Q30" t="n">
-        <v>294.4310337899016</v>
+        <v>84.35374605405246</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.96323645119017</v>
+        <v>30.96323645118927</v>
       </c>
       <c r="K31" t="n">
-        <v>169.0648189831208</v>
+        <v>169.0648189831199</v>
       </c>
       <c r="L31" t="n">
-        <v>266.7957152453816</v>
+        <v>266.7957152453807</v>
       </c>
       <c r="M31" t="n">
-        <v>290.6971372008284</v>
+        <v>290.6971372008276</v>
       </c>
       <c r="N31" t="n">
-        <v>289.7537522986348</v>
+        <v>289.753752298634</v>
       </c>
       <c r="O31" t="n">
-        <v>252.9949780513419</v>
+        <v>252.994978051341</v>
       </c>
       <c r="P31" t="n">
-        <v>195.6315054091675</v>
+        <v>195.6315054091666</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.36786009246196</v>
+        <v>57.36786009246107</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>165.2928341594944</v>
+        <v>39.20179881908558</v>
       </c>
       <c r="K33" t="n">
         <v>145.9463855513799</v>
       </c>
       <c r="L33" t="n">
-        <v>613.8737171912032</v>
+        <v>465.9678378251543</v>
       </c>
       <c r="M33" t="n">
         <v>303.1608739426075</v>
@@ -37160,13 +37160,13 @@
         <v>325.7388269761171</v>
       </c>
       <c r="O33" t="n">
-        <v>275.5431508633686</v>
+        <v>669.4054701400981</v>
       </c>
       <c r="P33" t="n">
-        <v>429.8702066148172</v>
+        <v>520.0820897803947</v>
       </c>
       <c r="Q33" t="n">
-        <v>294.4310337899016</v>
+        <v>84.35374605405246</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.02753137687868</v>
+        <v>80.0275313768787</v>
       </c>
       <c r="K34" t="n">
         <v>218.1291139088093</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>165.2928341594944</v>
+        <v>39.20179881908558</v>
       </c>
       <c r="K36" t="n">
-        <v>410.4116225639585</v>
+        <v>145.9463855513799</v>
       </c>
       <c r="L36" t="n">
-        <v>469.2738847488965</v>
+        <v>465.9678378251543</v>
       </c>
       <c r="M36" t="n">
         <v>303.1608739426075</v>
@@ -37397,7 +37397,7 @@
         <v>325.7388269761171</v>
       </c>
       <c r="O36" t="n">
-        <v>275.5431508633686</v>
+        <v>669.4054701400981</v>
       </c>
       <c r="P36" t="n">
         <v>520.0820897803947</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.02753137687867</v>
+        <v>80.02753137687864</v>
       </c>
       <c r="K37" t="n">
-        <v>218.1291139088093</v>
+        <v>218.1291139088092</v>
       </c>
       <c r="L37" t="n">
-        <v>315.8600101710701</v>
+        <v>315.86001017107</v>
       </c>
       <c r="M37" t="n">
-        <v>339.761432126517</v>
+        <v>339.7614321265169</v>
       </c>
       <c r="N37" t="n">
         <v>338.8180472243233</v>
@@ -37482,7 +37482,7 @@
         <v>244.695800334856</v>
       </c>
       <c r="Q37" t="n">
-        <v>106.4321550181505</v>
+        <v>106.4321550181504</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>344.7137624085514</v>
       </c>
       <c r="R38" t="n">
-        <v>56.45982037355273</v>
+        <v>56.45982037355376</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>39.20179881908558</v>
       </c>
       <c r="K39" t="n">
-        <v>410.4116225639585</v>
+        <v>145.9463855513799</v>
       </c>
       <c r="L39" t="n">
-        <v>613.8737171912032</v>
+        <v>243.0333718877441</v>
       </c>
       <c r="M39" t="n">
-        <v>303.1608739426075</v>
+        <v>759.0780534531306</v>
       </c>
       <c r="N39" t="n">
-        <v>325.7388269761171</v>
+        <v>805.0812013196708</v>
       </c>
       <c r="O39" t="n">
         <v>275.5431508633686</v>
       </c>
       <c r="P39" t="n">
-        <v>291.4960049426474</v>
+        <v>201.6193211404574</v>
       </c>
       <c r="Q39" t="n">
-        <v>294.4310337899016</v>
+        <v>84.35374605405246</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.02753137687863</v>
+        <v>80.02753137687866</v>
       </c>
       <c r="K40" t="n">
         <v>218.1291139088092</v>
       </c>
       <c r="L40" t="n">
-        <v>315.86001017107</v>
+        <v>315.8600101710701</v>
       </c>
       <c r="M40" t="n">
         <v>339.7614321265169</v>
@@ -37719,7 +37719,7 @@
         <v>244.695800334856</v>
       </c>
       <c r="Q40" t="n">
-        <v>106.4321550181504</v>
+        <v>106.4321550181505</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>266.8306557756281</v>
+        <v>266.830655775628</v>
       </c>
       <c r="K41" t="n">
         <v>521.8744330307522</v>
       </c>
       <c r="L41" t="n">
-        <v>700.2360557537846</v>
+        <v>700.2360557537845</v>
       </c>
       <c r="M41" t="n">
         <v>795.9218214261111</v>
       </c>
       <c r="N41" t="n">
-        <v>794.0208731066099</v>
+        <v>794.0208731066098</v>
       </c>
       <c r="O41" t="n">
         <v>704.1273160766475</v>
       </c>
       <c r="P41" t="n">
-        <v>562.901441480382</v>
+        <v>562.9014414803819</v>
       </c>
       <c r="Q41" t="n">
         <v>344.7137624085514</v>
       </c>
       <c r="R41" t="n">
-        <v>56.45982037355284</v>
+        <v>56.45982037355376</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>39.20179881908558</v>
       </c>
       <c r="K42" t="n">
-        <v>368.8808514887895</v>
+        <v>145.9463855513799</v>
       </c>
       <c r="L42" t="n">
-        <v>243.0333718877442</v>
+        <v>465.9678378251543</v>
       </c>
       <c r="M42" t="n">
-        <v>303.1608739426076</v>
+        <v>303.1608739426075</v>
       </c>
       <c r="N42" t="n">
-        <v>325.7388269761173</v>
+        <v>325.7388269761171</v>
       </c>
       <c r="O42" t="n">
-        <v>669.4054701400983</v>
+        <v>669.4054701400981</v>
       </c>
       <c r="P42" t="n">
         <v>520.0820897803947</v>
       </c>
       <c r="Q42" t="n">
-        <v>84.35374605405249</v>
+        <v>84.35374605405246</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.02753137687866</v>
+        <v>80.02753137687864</v>
       </c>
       <c r="K43" t="n">
-        <v>218.1291139088093</v>
+        <v>218.1291139088092</v>
       </c>
       <c r="L43" t="n">
-        <v>315.8600101710701</v>
+        <v>315.86001017107</v>
       </c>
       <c r="M43" t="n">
-        <v>339.761432126517</v>
+        <v>339.7614321265169</v>
       </c>
       <c r="N43" t="n">
         <v>338.8180472243233</v>
@@ -37956,7 +37956,7 @@
         <v>244.695800334856</v>
       </c>
       <c r="Q43" t="n">
-        <v>106.4321550181505</v>
+        <v>106.4321550181504</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>165.2928341594944</v>
+        <v>39.20179881908558</v>
       </c>
       <c r="K45" t="n">
-        <v>410.4116225639585</v>
+        <v>145.9463855513799</v>
       </c>
       <c r="L45" t="n">
-        <v>250.2390647863994</v>
+        <v>243.0333718877441</v>
       </c>
       <c r="M45" t="n">
-        <v>303.1608739426075</v>
+        <v>759.0780534531306</v>
       </c>
       <c r="N45" t="n">
-        <v>325.7388269761171</v>
+        <v>805.0812013196708</v>
       </c>
       <c r="O45" t="n">
         <v>275.5431508633686</v>
       </c>
       <c r="P45" t="n">
-        <v>520.0820897803947</v>
+        <v>201.6193211404574</v>
       </c>
       <c r="Q45" t="n">
-        <v>294.4310337899016</v>
+        <v>84.35374605405246</v>
       </c>
       <c r="R45" t="n">
-        <v>8.95753222664797</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
